--- a/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9745945776568251</v>
+        <v>0.9623819948113487</v>
       </c>
       <c r="D2">
-        <v>0.997569636184502</v>
+        <v>0.9873852900689254</v>
       </c>
       <c r="E2">
-        <v>0.9820492465303668</v>
+        <v>0.9730860281455345</v>
       </c>
       <c r="F2">
-        <v>0.9779410657066532</v>
+        <v>0.937124032808215</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035284649522607</v>
+        <v>1.028857264345169</v>
       </c>
       <c r="J2">
-        <v>0.9975626535992045</v>
+        <v>0.9857491746757114</v>
       </c>
       <c r="K2">
-        <v>1.009062934000923</v>
+        <v>0.9990232110790085</v>
       </c>
       <c r="L2">
-        <v>0.9937644611798484</v>
+        <v>0.984933503163739</v>
       </c>
       <c r="M2">
-        <v>0.9897165180162706</v>
+        <v>0.9495348647804142</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9851828538086236</v>
+        <v>0.9725848852604241</v>
       </c>
       <c r="D3">
-        <v>1.005941341821367</v>
+        <v>0.995073595319086</v>
       </c>
       <c r="E3">
-        <v>0.9912174182396952</v>
+        <v>0.9816779861521578</v>
       </c>
       <c r="F3">
-        <v>0.9890125925842507</v>
+        <v>0.9505218808088183</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039027384990181</v>
+        <v>1.031662240426237</v>
       </c>
       <c r="J3">
-        <v>1.006085764279113</v>
+        <v>0.9938518774722326</v>
       </c>
       <c r="K3">
-        <v>1.016498762340637</v>
+        <v>1.005769900927619</v>
       </c>
       <c r="L3">
-        <v>1.001963921085788</v>
+        <v>0.992550795587393</v>
       </c>
       <c r="M3">
-        <v>0.9997880169271345</v>
+        <v>0.9618295944696573</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9917355582303288</v>
+        <v>0.9788981061970842</v>
       </c>
       <c r="D4">
-        <v>1.01112517517767</v>
+        <v>0.9998336373101477</v>
       </c>
       <c r="E4">
-        <v>0.9968926259307044</v>
+        <v>0.9870016838107603</v>
       </c>
       <c r="F4">
-        <v>0.9958729875246827</v>
+        <v>0.9587931451197916</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041325283643931</v>
+        <v>1.033381803874517</v>
       </c>
       <c r="J4">
-        <v>1.011353058197393</v>
+        <v>0.9988574494330854</v>
       </c>
       <c r="K4">
-        <v>1.021091158150777</v>
+        <v>1.009934070597725</v>
       </c>
       <c r="L4">
-        <v>1.00702869946583</v>
+        <v>0.9972595606303493</v>
       </c>
       <c r="M4">
-        <v>1.006021478486437</v>
+        <v>0.9694157297284358</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9944246643488149</v>
+        <v>0.9814888124505508</v>
       </c>
       <c r="D5">
-        <v>1.013253008672196</v>
+        <v>1.001787409224014</v>
       </c>
       <c r="E5">
-        <v>0.9992218100718879</v>
+        <v>0.9891878951883935</v>
       </c>
       <c r="F5">
-        <v>0.9986904073728612</v>
+        <v>0.9621837794940845</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042263797855284</v>
+        <v>1.034083489690614</v>
       </c>
       <c r="J5">
-        <v>1.013512801503984</v>
+        <v>1.000909546653733</v>
       </c>
       <c r="K5">
-        <v>1.022973413565857</v>
+        <v>1.011640249597602</v>
       </c>
       <c r="L5">
-        <v>1.009104800001986</v>
+        <v>0.9991906627022372</v>
       </c>
       <c r="M5">
-        <v>1.008579666045661</v>
+        <v>0.9725244193752512</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9948724828849391</v>
+        <v>0.9819202399896683</v>
       </c>
       <c r="D6">
-        <v>1.013607381157734</v>
+        <v>1.00211278785341</v>
       </c>
       <c r="E6">
-        <v>0.9996096978000425</v>
+        <v>0.9895520501389742</v>
       </c>
       <c r="F6">
-        <v>0.9991597136273243</v>
+        <v>0.9627482326675302</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042419821670273</v>
+        <v>1.034200104898352</v>
       </c>
       <c r="J6">
-        <v>1.013872353322923</v>
+        <v>1.001251161083585</v>
       </c>
       <c r="K6">
-        <v>1.023286723347281</v>
+        <v>1.011924218997374</v>
       </c>
       <c r="L6">
-        <v>1.009450391273726</v>
+        <v>0.9995121739212052</v>
       </c>
       <c r="M6">
-        <v>1.009005686874496</v>
+        <v>0.9730418691386056</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9917717410139526</v>
+        <v>0.9789329653306639</v>
       </c>
       <c r="D7">
-        <v>1.011153804185362</v>
+        <v>0.999859924779542</v>
       </c>
       <c r="E7">
-        <v>0.9969239652819417</v>
+        <v>0.9870310942772641</v>
       </c>
       <c r="F7">
-        <v>0.9959108887324883</v>
+        <v>0.9588387806965536</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041337929638864</v>
+        <v>1.0333912612173</v>
       </c>
       <c r="J7">
-        <v>1.0113821257088</v>
+        <v>0.9988850693393633</v>
       </c>
       <c r="K7">
-        <v>1.021116494095965</v>
+        <v>1.009957038646107</v>
       </c>
       <c r="L7">
-        <v>1.007056643658658</v>
+        <v>0.9972855493631838</v>
       </c>
       <c r="M7">
-        <v>1.006055899406775</v>
+        <v>0.9694575749801853</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9782385393520168</v>
+        <v>0.965893620237222</v>
       </c>
       <c r="D8">
-        <v>1.000450012944836</v>
+        <v>0.9900307042967302</v>
       </c>
       <c r="E8">
-        <v>0.9852040971440806</v>
+        <v>0.9760415373131007</v>
       </c>
       <c r="F8">
-        <v>0.981749483342283</v>
+        <v>0.941739970453333</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036576560820474</v>
+        <v>1.029826037404112</v>
       </c>
       <c r="J8">
-        <v>1.000497395183409</v>
+        <v>0.9885396569938938</v>
       </c>
       <c r="K8">
-        <v>1.011623891967671</v>
+        <v>1.001347431155718</v>
       </c>
       <c r="L8">
-        <v>0.9965882897913386</v>
+        <v>0.9875561280256837</v>
       </c>
       <c r="M8">
-        <v>0.9931824792491479</v>
+        <v>0.9537715539436122</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9517913705814909</v>
+        <v>0.9403945219181381</v>
       </c>
       <c r="D9">
-        <v>0.979568105598087</v>
+        <v>0.9708455376233673</v>
       </c>
       <c r="E9">
-        <v>0.962320048734353</v>
+        <v>0.954622023324604</v>
       </c>
       <c r="F9">
-        <v>0.9541484600747063</v>
+        <v>0.9080857271224527</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02712308680996</v>
+        <v>1.022724740947426</v>
       </c>
       <c r="J9">
-        <v>0.9791693987604642</v>
+        <v>0.968243130842544</v>
       </c>
       <c r="K9">
-        <v>0.9930016089874203</v>
+        <v>0.9844300258496653</v>
       </c>
       <c r="L9">
-        <v>0.9760555460812613</v>
+        <v>0.9684968904378065</v>
       </c>
       <c r="M9">
-        <v>0.9680319964873599</v>
+        <v>0.9228696546201365</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9318679228400117</v>
+        <v>0.9211520154937054</v>
       </c>
       <c r="D10">
-        <v>0.9638824227292044</v>
+        <v>0.9564158367982314</v>
       </c>
       <c r="E10">
-        <v>0.9451086562652028</v>
+        <v>0.9385250872772366</v>
       </c>
       <c r="F10">
-        <v>0.9334092881475553</v>
+        <v>0.8824284292750366</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019907598330454</v>
+        <v>1.017285494482969</v>
       </c>
       <c r="J10">
-        <v>0.9630721927573092</v>
+        <v>0.9528852544149644</v>
       </c>
       <c r="K10">
-        <v>0.9789359181315512</v>
+        <v>0.9716192801549332</v>
       </c>
       <c r="L10">
-        <v>0.9605451418704203</v>
+        <v>0.9541006888824086</v>
       </c>
       <c r="M10">
-        <v>0.9490947891505142</v>
+        <v>0.8993032438901659</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9225322140062442</v>
+        <v>0.9121181411334055</v>
       </c>
       <c r="D11">
-        <v>0.9565492381413678</v>
+        <v>0.9496596197571932</v>
       </c>
       <c r="E11">
-        <v>0.9370547547843958</v>
+        <v>0.9309891651643503</v>
       </c>
       <c r="F11">
-        <v>0.9237047401200295</v>
+        <v>0.8702842921992056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016506750896139</v>
+        <v>1.014715322416518</v>
       </c>
       <c r="J11">
-        <v>0.9555248702516845</v>
+        <v>0.9456661889313372</v>
       </c>
       <c r="K11">
-        <v>0.9723398828738851</v>
+        <v>0.9655977047354817</v>
       </c>
       <c r="L11">
-        <v>0.9532700674389119</v>
+        <v>0.9473414549506254</v>
       </c>
       <c r="M11">
-        <v>0.9402247136264079</v>
+        <v>0.8881510816687677</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9189393652322743</v>
+        <v>0.90863749255643</v>
       </c>
       <c r="D12">
-        <v>0.9537302347688436</v>
+        <v>0.9470599790725388</v>
       </c>
       <c r="E12">
-        <v>0.9339573449077098</v>
+        <v>0.9280894074772174</v>
       </c>
       <c r="F12">
-        <v>0.9199720143754565</v>
+        <v>0.8655860776637541</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015195235577418</v>
+        <v>1.013722847841482</v>
       </c>
       <c r="J12">
-        <v>0.9526199029539094</v>
+        <v>0.9428835059815104</v>
       </c>
       <c r="K12">
-        <v>0.9698010254751177</v>
+        <v>0.9632769197740561</v>
       </c>
       <c r="L12">
-        <v>0.9504694970793196</v>
+        <v>0.9447373868769642</v>
       </c>
       <c r="M12">
-        <v>0.9368117247204265</v>
+        <v>0.8838374764590304</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9197160615265004</v>
+        <v>0.9093901416200012</v>
       </c>
       <c r="D13">
-        <v>0.9543394875927027</v>
+        <v>0.9476219519501448</v>
       </c>
       <c r="E13">
-        <v>0.9346268329085026</v>
+        <v>0.9287162667768339</v>
       </c>
       <c r="F13">
-        <v>0.9207788548597839</v>
+        <v>0.8666029615322894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015478873176182</v>
+        <v>1.013937553468627</v>
       </c>
       <c r="J13">
-        <v>0.9532479056389177</v>
+        <v>0.9434852836560668</v>
       </c>
       <c r="K13">
-        <v>0.9703498809396787</v>
+        <v>0.9637787890865978</v>
       </c>
       <c r="L13">
-        <v>0.9510749477843411</v>
+        <v>0.9453004724133891</v>
       </c>
       <c r="M13">
-        <v>0.9375495069913837</v>
+        <v>0.8847710677046303</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9222379068952914</v>
+        <v>0.9118331150988416</v>
       </c>
       <c r="D14">
-        <v>0.9563182521213653</v>
+        <v>0.9494466640963576</v>
       </c>
       <c r="E14">
-        <v>0.9368009851697021</v>
+        <v>0.93075162838952</v>
       </c>
       <c r="F14">
-        <v>0.9233989329262379</v>
+        <v>0.869899978655442</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016399371112013</v>
+        <v>1.014634092797653</v>
       </c>
       <c r="J14">
-        <v>0.9552869164241259</v>
+        <v>0.9454383433753291</v>
       </c>
       <c r="K14">
-        <v>0.9721319180302365</v>
+        <v>0.9654076712046883</v>
       </c>
       <c r="L14">
-        <v>0.9530406726540847</v>
+        <v>0.9471282054913026</v>
       </c>
       <c r="M14">
-        <v>0.9399451254870467</v>
+        <v>0.8877982087673184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9237744725408771</v>
+        <v>0.9133210549124287</v>
       </c>
       <c r="D15">
-        <v>0.9575243531671981</v>
+        <v>0.9505585142134007</v>
       </c>
       <c r="E15">
-        <v>0.9381259954878153</v>
+        <v>0.9319918117313686</v>
       </c>
       <c r="F15">
-        <v>0.9249956239696626</v>
+        <v>0.8719054308277833</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016959889570092</v>
+        <v>1.015058053382396</v>
       </c>
       <c r="J15">
-        <v>0.9565292504768346</v>
+        <v>0.9466277299184576</v>
       </c>
       <c r="K15">
-        <v>0.9732176817334983</v>
+        <v>0.9663996878705809</v>
       </c>
       <c r="L15">
-        <v>0.9542383052529818</v>
+        <v>0.9482414547266567</v>
       </c>
       <c r="M15">
-        <v>0.9414048715065947</v>
+        <v>0.8896396324230912</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9324710847815131</v>
+        <v>0.9217352261920624</v>
       </c>
       <c r="D16">
-        <v>0.9643565985203479</v>
+        <v>0.9568524322894458</v>
       </c>
       <c r="E16">
-        <v>0.9456292647096716</v>
+        <v>0.9390120681823784</v>
       </c>
       <c r="F16">
-        <v>0.9340365577769071</v>
+        <v>0.8832100905780368</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020126938249208</v>
+        <v>1.017451104068032</v>
       </c>
       <c r="J16">
-        <v>0.9635597417700441</v>
+        <v>0.9533511293640909</v>
       </c>
       <c r="K16">
-        <v>0.9793620014002729</v>
+        <v>0.9720079019878711</v>
       </c>
       <c r="L16">
-        <v>0.9610150483614253</v>
+        <v>0.9545370627113384</v>
       </c>
       <c r="M16">
-        <v>0.9496679493407467</v>
+        <v>0.9000211407809015</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9377247425303668</v>
+        <v>0.9268131071700414</v>
       </c>
       <c r="D17">
-        <v>0.9684886821671363</v>
+        <v>0.9606558450044215</v>
       </c>
       <c r="E17">
-        <v>0.9501651268906366</v>
+        <v>0.9432544935864048</v>
       </c>
       <c r="F17">
-        <v>0.939501686582231</v>
+        <v>0.8900045589068324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022035264795041</v>
+        <v>1.018891222539894</v>
       </c>
       <c r="J17">
-        <v>0.9678059170336758</v>
+        <v>0.9574064184591697</v>
       </c>
       <c r="K17">
-        <v>0.9830727375732328</v>
+        <v>0.9753907754007712</v>
       </c>
       <c r="L17">
-        <v>0.9651072556179147</v>
+        <v>0.9583364322289121</v>
       </c>
       <c r="M17">
-        <v>0.9546606864531818</v>
+        <v>0.9062616430064657</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9407222091362917</v>
+        <v>0.929708811003587</v>
       </c>
       <c r="D18">
-        <v>0.9708477335906655</v>
+        <v>0.9628263885911835</v>
       </c>
       <c r="E18">
-        <v>0.9527540318643022</v>
+        <v>0.9456756765065873</v>
       </c>
       <c r="F18">
-        <v>0.9426210349457569</v>
+        <v>0.8938704321068741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023122215277025</v>
+        <v>1.01971092001046</v>
       </c>
       <c r="J18">
-        <v>0.9702281296021144</v>
+        <v>0.9597181559498554</v>
       </c>
       <c r="K18">
-        <v>0.9851893902111711</v>
+        <v>0.9773191965425838</v>
       </c>
       <c r="L18">
-        <v>0.967441369967727</v>
+        <v>0.9605029817903222</v>
       </c>
       <c r="M18">
-        <v>0.9575095974449287</v>
+        <v>0.9098124983094709</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9417334120055889</v>
+        <v>0.9306854638083014</v>
       </c>
       <c r="D19">
-        <v>0.9716438028675252</v>
+        <v>0.9635587175278925</v>
       </c>
       <c r="E19">
-        <v>0.9536275587169466</v>
+        <v>0.9464925932627908</v>
       </c>
       <c r="F19">
-        <v>0.943673561509849</v>
+        <v>0.8951729256373158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02348858104265</v>
+        <v>1.01998711597682</v>
       </c>
       <c r="J19">
-        <v>0.9710451874931422</v>
+        <v>0.9604977083191896</v>
       </c>
       <c r="K19">
-        <v>0.9859033528341831</v>
+        <v>0.9779694814350396</v>
       </c>
       <c r="L19">
-        <v>0.9682286642633305</v>
+        <v>0.9612336885496012</v>
       </c>
       <c r="M19">
-        <v>0.9584707342116949</v>
+        <v>0.9110088733718591</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9371681146860019</v>
+        <v>0.9262752641754135</v>
       </c>
       <c r="D20">
-        <v>0.968050725445648</v>
+        <v>0.9602528190288655</v>
       </c>
       <c r="E20">
-        <v>0.9496844451092633</v>
+        <v>0.9428049388015328</v>
       </c>
       <c r="F20">
-        <v>0.9389225248600274</v>
+        <v>0.8892858339797778</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021833267003093</v>
+        <v>1.018738846078619</v>
       </c>
       <c r="J20">
-        <v>0.9673560761633301</v>
+        <v>0.9569769726330102</v>
       </c>
       <c r="K20">
-        <v>0.9826796329872741</v>
+        <v>0.9750325353789814</v>
       </c>
       <c r="L20">
-        <v>0.9646737538537702</v>
+        <v>0.9579340134301904</v>
       </c>
       <c r="M20">
-        <v>0.9541316698683929</v>
+        <v>0.9056014959733999</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9214989160622264</v>
+        <v>0.911117359274675</v>
       </c>
       <c r="D21">
-        <v>0.9557383107331907</v>
+        <v>0.9489119489880664</v>
       </c>
       <c r="E21">
-        <v>0.9361638180451174</v>
+        <v>0.9301551894328516</v>
       </c>
       <c r="F21">
-        <v>0.9226310993025842</v>
+        <v>0.8689345676157181</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016129703555027</v>
+        <v>1.014430074978738</v>
       </c>
       <c r="J21">
-        <v>0.9546894210129799</v>
+        <v>0.9448661589709036</v>
       </c>
       <c r="K21">
-        <v>0.9716097239919601</v>
+        <v>0.9649304494849539</v>
       </c>
       <c r="L21">
-        <v>0.9524646626599051</v>
+        <v>0.946592698631618</v>
       </c>
       <c r="M21">
-        <v>0.9392431043613446</v>
+        <v>0.8869117933238565</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9109096856529573</v>
+        <v>0.9008489386570909</v>
       </c>
       <c r="D22">
-        <v>0.9474367956457787</v>
+        <v>0.9412502210008832</v>
       </c>
       <c r="E22">
-        <v>0.9270395497431905</v>
+        <v>0.9216084221407769</v>
       </c>
       <c r="F22">
-        <v>0.9116336435443311</v>
+        <v>0.8550309129216838</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012259475451261</v>
+        <v>1.011498249767168</v>
       </c>
       <c r="J22">
-        <v>0.9461272724430602</v>
+        <v>0.9366545123236092</v>
       </c>
       <c r="K22">
-        <v>0.9641267628851576</v>
+        <v>0.9580828368198125</v>
       </c>
       <c r="L22">
-        <v>0.9442095274905653</v>
+        <v>0.9389110367046448</v>
       </c>
       <c r="M22">
-        <v>0.9291854218922685</v>
+        <v>0.8741486760270405</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9166007792747278</v>
+        <v>0.90637058015879</v>
       </c>
       <c r="D23">
-        <v>0.9518963353174462</v>
+        <v>0.9453679381809666</v>
       </c>
       <c r="E23">
-        <v>0.9319419141661649</v>
+        <v>0.9262019632729143</v>
       </c>
       <c r="F23">
-        <v>0.9175429745696222</v>
+        <v>0.8625200687846474</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014340849210097</v>
+        <v>1.013075872846543</v>
       </c>
       <c r="J23">
-        <v>0.9507289962665005</v>
+        <v>0.941070826070121</v>
       </c>
       <c r="K23">
-        <v>0.9681484364314965</v>
+        <v>0.9617652559929982</v>
       </c>
       <c r="L23">
-        <v>0.9486464407337812</v>
+        <v>0.9430414746504533</v>
       </c>
       <c r="M23">
-        <v>0.934590415553904</v>
+        <v>0.8810227751036379</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9374198362402392</v>
+        <v>0.9265184952393541</v>
       </c>
       <c r="D24">
-        <v>0.9682487762150118</v>
+        <v>0.9604350762193218</v>
       </c>
       <c r="E24">
-        <v>0.9499018188744738</v>
+        <v>0.943008237004883</v>
       </c>
       <c r="F24">
-        <v>0.9391844329951601</v>
+        <v>0.8896108929903623</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0219246214117</v>
+        <v>1.018807760774642</v>
       </c>
       <c r="J24">
-        <v>0.9675595072590775</v>
+        <v>0.9571711853557122</v>
       </c>
       <c r="K24">
-        <v>0.9828574066760494</v>
+        <v>0.9751945459924544</v>
       </c>
       <c r="L24">
-        <v>0.9648697967697202</v>
+        <v>0.9581160012698289</v>
       </c>
       <c r="M24">
-        <v>0.9543709039302141</v>
+        <v>0.9059000613448243</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9589860636804916</v>
+        <v>0.9473348149777613</v>
       </c>
       <c r="D25">
-        <v>0.9852429203501234</v>
+        <v>0.9760611442162095</v>
       </c>
       <c r="E25">
-        <v>0.968541959356878</v>
+        <v>0.9604422427884542</v>
       </c>
       <c r="F25">
-        <v>0.9616483598248836</v>
+        <v>0.917279711143144</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02971106984078</v>
+        <v>1.02467157004282</v>
       </c>
       <c r="J25">
-        <v>0.9849771845668203</v>
+        <v>0.9737745426495731</v>
       </c>
       <c r="K25">
-        <v>0.998074723762109</v>
+        <v>0.9890428068154088</v>
       </c>
       <c r="L25">
-        <v>0.9816490746597658</v>
+        <v>0.9736873380972485</v>
       </c>
       <c r="M25">
-        <v>0.9748727183564417</v>
+        <v>0.9313139626234912</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9623819948113487</v>
+        <v>1.016088328725654</v>
       </c>
       <c r="D2">
-        <v>0.9873852900689254</v>
+        <v>1.03025887118119</v>
       </c>
       <c r="E2">
-        <v>0.9730860281455345</v>
+        <v>1.019589117471803</v>
       </c>
       <c r="F2">
-        <v>0.937124032808215</v>
+        <v>1.021133113536663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028857264345169</v>
+        <v>1.052389366031763</v>
       </c>
       <c r="J2">
-        <v>0.9857491746757114</v>
+        <v>1.037798262583717</v>
       </c>
       <c r="K2">
-        <v>0.9990232110790085</v>
+        <v>1.041312152660166</v>
       </c>
       <c r="L2">
-        <v>0.984933503163739</v>
+        <v>1.030782127257279</v>
       </c>
       <c r="M2">
-        <v>0.9495348647804142</v>
+        <v>1.032305676901633</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9725848852604241</v>
+        <v>1.02241326199065</v>
       </c>
       <c r="D3">
-        <v>0.995073595319086</v>
+        <v>1.035092210500333</v>
       </c>
       <c r="E3">
-        <v>0.9816779861521578</v>
+        <v>1.024862745184541</v>
       </c>
       <c r="F3">
-        <v>0.9505218808088183</v>
+        <v>1.028115250820494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031662240426237</v>
+        <v>1.055121320414709</v>
       </c>
       <c r="J3">
-        <v>0.9938518774722326</v>
+        <v>1.04231102310689</v>
       </c>
       <c r="K3">
-        <v>1.005769900927619</v>
+        <v>1.045294937206145</v>
       </c>
       <c r="L3">
-        <v>0.992550795587393</v>
+        <v>1.035187086771355</v>
       </c>
       <c r="M3">
-        <v>0.9618295944696573</v>
+        <v>1.03840059902224</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9788981061970842</v>
+        <v>1.026394503310628</v>
       </c>
       <c r="D4">
-        <v>0.9998336373101477</v>
+        <v>1.038136627994408</v>
       </c>
       <c r="E4">
-        <v>0.9870016838107603</v>
+        <v>1.028186676389781</v>
       </c>
       <c r="F4">
-        <v>0.9587931451197916</v>
+        <v>1.032514110021707</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033381803874517</v>
+        <v>1.056829124686938</v>
       </c>
       <c r="J4">
-        <v>0.9988574494330854</v>
+        <v>1.045146312816789</v>
       </c>
       <c r="K4">
-        <v>1.009934070597725</v>
+        <v>1.047795574764629</v>
       </c>
       <c r="L4">
-        <v>0.9972595606303493</v>
+        <v>1.037956410891516</v>
       </c>
       <c r="M4">
-        <v>0.9694157297284358</v>
+        <v>1.042235337858413</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9814888124505508</v>
+        <v>1.028042851374418</v>
       </c>
       <c r="D5">
-        <v>1.001787409224014</v>
+        <v>1.039397525561488</v>
       </c>
       <c r="E5">
-        <v>0.9891878951883935</v>
+        <v>1.029563875863889</v>
       </c>
       <c r="F5">
-        <v>0.9621837794940845</v>
+        <v>1.034336345775949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034083489690614</v>
+        <v>1.057533325496649</v>
       </c>
       <c r="J5">
-        <v>1.000909546653733</v>
+        <v>1.046318895700142</v>
       </c>
       <c r="K5">
-        <v>1.011640249597602</v>
+        <v>1.048829340025101</v>
       </c>
       <c r="L5">
-        <v>0.9991906627022372</v>
+        <v>1.039102124934087</v>
       </c>
       <c r="M5">
-        <v>0.9725244193752512</v>
+        <v>1.043822629978294</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9819202399896683</v>
+        <v>1.028318165034664</v>
       </c>
       <c r="D6">
-        <v>1.00211278785341</v>
+        <v>1.039608148415707</v>
       </c>
       <c r="E6">
-        <v>0.9895520501389742</v>
+        <v>1.02979395792148</v>
       </c>
       <c r="F6">
-        <v>0.9627482326675302</v>
+        <v>1.034640761614686</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034200104898352</v>
+        <v>1.057650773447651</v>
       </c>
       <c r="J6">
-        <v>1.001251161083585</v>
+        <v>1.046514667024971</v>
       </c>
       <c r="K6">
-        <v>1.011924218997374</v>
+        <v>1.049001909834686</v>
       </c>
       <c r="L6">
-        <v>0.9995121739212052</v>
+        <v>1.039293434262463</v>
       </c>
       <c r="M6">
-        <v>0.9730418691386056</v>
+        <v>1.044087722689539</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9789329653306639</v>
+        <v>1.02641662663024</v>
       </c>
       <c r="D7">
-        <v>0.999859924779542</v>
+        <v>1.038153549570392</v>
       </c>
       <c r="E7">
-        <v>0.9870310942772641</v>
+        <v>1.028205156629699</v>
       </c>
       <c r="F7">
-        <v>0.9588387806965536</v>
+        <v>1.032538563245507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0333912612173</v>
+        <v>1.056838587567852</v>
       </c>
       <c r="J7">
-        <v>0.9988850693393633</v>
+        <v>1.045162055880011</v>
       </c>
       <c r="K7">
-        <v>1.009957038646107</v>
+        <v>1.047809455733039</v>
       </c>
       <c r="L7">
-        <v>0.9972855493631838</v>
+        <v>1.037971791596088</v>
       </c>
       <c r="M7">
-        <v>0.9694575749801853</v>
+        <v>1.042256643279687</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.965893620237222</v>
+        <v>1.018249756319331</v>
       </c>
       <c r="D8">
-        <v>0.9900307042967302</v>
+        <v>1.03191009330931</v>
       </c>
       <c r="E8">
-        <v>0.9760415373131007</v>
+        <v>1.021390303373003</v>
       </c>
       <c r="F8">
-        <v>0.941739970453333</v>
+        <v>1.023518321593041</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029826037404112</v>
+        <v>1.053325427361301</v>
       </c>
       <c r="J8">
-        <v>0.9885396569938938</v>
+        <v>1.039341499012803</v>
       </c>
       <c r="K8">
-        <v>1.001347431155718</v>
+        <v>1.042674497411151</v>
       </c>
       <c r="L8">
-        <v>0.9875561280256837</v>
+        <v>1.032288119677503</v>
       </c>
       <c r="M8">
-        <v>0.9537715539436122</v>
+        <v>1.034388873852287</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9403945219181381</v>
+        <v>1.002941194470782</v>
       </c>
       <c r="D9">
-        <v>0.9708455376233673</v>
+        <v>1.020227300846445</v>
       </c>
       <c r="E9">
-        <v>0.954622023324604</v>
+        <v>1.008655355480765</v>
       </c>
       <c r="F9">
-        <v>0.9080857271224527</v>
+        <v>1.006640085422913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022724740947426</v>
+        <v>1.046646519938782</v>
       </c>
       <c r="J9">
-        <v>0.968243130842544</v>
+        <v>1.028390517383814</v>
       </c>
       <c r="K9">
-        <v>0.9844300258496653</v>
+        <v>1.03300051236233</v>
       </c>
       <c r="L9">
-        <v>0.9684968904378065</v>
+        <v>1.021609549255702</v>
       </c>
       <c r="M9">
-        <v>0.9228696546201365</v>
+        <v>1.019626342729509</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9211520154937054</v>
+        <v>0.9920191659704016</v>
       </c>
       <c r="D10">
-        <v>0.9564158367982314</v>
+        <v>1.011911732456808</v>
       </c>
       <c r="E10">
-        <v>0.9385250872772366</v>
+        <v>0.9996016387442945</v>
       </c>
       <c r="F10">
-        <v>0.8824284292750366</v>
+        <v>0.9946155839621853</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017285494482969</v>
+        <v>1.041820589749636</v>
       </c>
       <c r="J10">
-        <v>0.9528852544149644</v>
+        <v>1.020553045248197</v>
       </c>
       <c r="K10">
-        <v>0.9716192801549332</v>
+        <v>1.026069196722197</v>
       </c>
       <c r="L10">
-        <v>0.9541006888824086</v>
+        <v>1.013978089453554</v>
       </c>
       <c r="M10">
-        <v>0.8993032438901659</v>
+        <v>1.009082741033116</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9121181411334055</v>
+        <v>0.9870944081582377</v>
       </c>
       <c r="D11">
-        <v>0.9496596197571932</v>
+        <v>1.008168325547103</v>
       </c>
       <c r="E11">
-        <v>0.9309891651643503</v>
+        <v>0.9955282973338938</v>
       </c>
       <c r="F11">
-        <v>0.8702842921992056</v>
+        <v>0.989197087955144</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014715322416518</v>
+        <v>1.039630832202304</v>
       </c>
       <c r="J11">
-        <v>0.9456661889313372</v>
+        <v>1.01701410800358</v>
       </c>
       <c r="K11">
-        <v>0.9655977047354817</v>
+        <v>1.022937825907177</v>
       </c>
       <c r="L11">
-        <v>0.9473414549506254</v>
+        <v>1.010535039012099</v>
       </c>
       <c r="M11">
-        <v>0.8881510816687677</v>
+        <v>1.004325648017897</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.90863749255643</v>
+        <v>0.9852333027455927</v>
       </c>
       <c r="D12">
-        <v>0.9470599790725388</v>
+        <v>1.006754712357417</v>
       </c>
       <c r="E12">
-        <v>0.9280894074772174</v>
+        <v>0.9939904281639566</v>
       </c>
       <c r="F12">
-        <v>0.8655860776637541</v>
+        <v>0.9871498256658534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013722847841482</v>
+        <v>1.038801306210757</v>
       </c>
       <c r="J12">
-        <v>0.9428835059815104</v>
+        <v>1.015676035856796</v>
       </c>
       <c r="K12">
-        <v>0.9632769197740561</v>
+        <v>1.021753636907762</v>
       </c>
       <c r="L12">
-        <v>0.9447373868769642</v>
+        <v>1.009233674904057</v>
       </c>
       <c r="M12">
-        <v>0.8838374764590304</v>
+        <v>1.002527426279947</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9093901416200012</v>
+        <v>0.9856339993190704</v>
       </c>
       <c r="D13">
-        <v>0.9476219519501448</v>
+        <v>1.007059014016831</v>
       </c>
       <c r="E13">
-        <v>0.9287162667768339</v>
+        <v>0.9943214629159643</v>
       </c>
       <c r="F13">
-        <v>0.8666029615322894</v>
+        <v>0.9875905837379751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013937553468627</v>
+        <v>1.03897999255692</v>
       </c>
       <c r="J13">
-        <v>0.9434852836560668</v>
+        <v>1.015964152632008</v>
       </c>
       <c r="K13">
-        <v>0.9637787890865978</v>
+        <v>1.022008628654482</v>
       </c>
       <c r="L13">
-        <v>0.9453004724133891</v>
+        <v>1.009513866766457</v>
       </c>
       <c r="M13">
-        <v>0.8847710677046303</v>
+        <v>1.002914606131964</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9118331150988416</v>
+        <v>0.9869412332234504</v>
       </c>
       <c r="D14">
-        <v>0.9494466640963576</v>
+        <v>1.00805195853035</v>
       </c>
       <c r="E14">
-        <v>0.93075162838952</v>
+        <v>0.9954016949873385</v>
       </c>
       <c r="F14">
-        <v>0.869899978655442</v>
+        <v>0.9890285834411222</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014634092797653</v>
+        <v>1.039562599721863</v>
       </c>
       <c r="J14">
-        <v>0.9454383433753291</v>
+        <v>1.016903993721406</v>
       </c>
       <c r="K14">
-        <v>0.9654076712046883</v>
+        <v>1.022840379446435</v>
       </c>
       <c r="L14">
-        <v>0.9471282054913026</v>
+        <v>1.010427936218335</v>
       </c>
       <c r="M14">
-        <v>0.8877982087673184</v>
+        <v>1.004177658514309</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9133210549124287</v>
+        <v>0.9877423666482196</v>
       </c>
       <c r="D15">
-        <v>0.9505585142134007</v>
+        <v>1.008660623233399</v>
       </c>
       <c r="E15">
-        <v>0.9319918117313686</v>
+        <v>0.9960639097751335</v>
       </c>
       <c r="F15">
-        <v>0.8719054308277833</v>
+        <v>0.989909910464172</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015058053382396</v>
+        <v>1.03991938739988</v>
       </c>
       <c r="J15">
-        <v>0.9466277299184576</v>
+        <v>1.017479884738167</v>
       </c>
       <c r="K15">
-        <v>0.9663996878705809</v>
+        <v>1.023350009812379</v>
       </c>
       <c r="L15">
-        <v>0.9482414547266567</v>
+        <v>1.0109880959046</v>
       </c>
       <c r="M15">
-        <v>0.8896396324230912</v>
+        <v>1.004951651518207</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9217352261920624</v>
+        <v>0.9923416837761727</v>
       </c>
       <c r="D16">
-        <v>0.9568524322894458</v>
+        <v>1.012157022055198</v>
       </c>
       <c r="E16">
-        <v>0.9390120681823784</v>
+        <v>0.9998685949643565</v>
       </c>
       <c r="F16">
-        <v>0.8832100905780368</v>
+        <v>0.9949704999154864</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017451104068032</v>
+        <v>1.041963715521879</v>
       </c>
       <c r="J16">
-        <v>0.9533511293640909</v>
+        <v>1.020784709129574</v>
       </c>
       <c r="K16">
-        <v>0.9720079019878711</v>
+        <v>1.026274149442225</v>
       </c>
       <c r="L16">
-        <v>0.9545370627113384</v>
+        <v>1.014203537652357</v>
       </c>
       <c r="M16">
-        <v>0.9000211407809015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.009394214495875</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9268131071700414</v>
+        <v>0.9951727308586849</v>
       </c>
       <c r="D17">
-        <v>0.9606558450044215</v>
+        <v>1.014310867396598</v>
       </c>
       <c r="E17">
-        <v>0.9432544935864048</v>
+        <v>1.002212955779037</v>
       </c>
       <c r="F17">
-        <v>0.8900045589068324</v>
+        <v>0.998086309277767</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018891222539894</v>
+        <v>1.043218521214668</v>
       </c>
       <c r="J17">
-        <v>0.9574064184591697</v>
+        <v>1.022817686204764</v>
       </c>
       <c r="K17">
-        <v>0.9753907754007712</v>
+        <v>1.028072543270599</v>
       </c>
       <c r="L17">
-        <v>0.9583364322289121</v>
+        <v>1.016182294803036</v>
       </c>
       <c r="M17">
-        <v>0.9062616430064657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.01212797583076</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.929708811003587</v>
+        <v>0.9968053556470124</v>
       </c>
       <c r="D18">
-        <v>0.9628263885911835</v>
+        <v>1.015553524067382</v>
       </c>
       <c r="E18">
-        <v>0.9456756765065873</v>
+        <v>1.003565753300944</v>
       </c>
       <c r="F18">
-        <v>0.8938704321068741</v>
+        <v>0.9998834749835352</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01971092001046</v>
+        <v>1.043940851679197</v>
       </c>
       <c r="J18">
-        <v>0.9597181559498554</v>
+        <v>1.023989598450185</v>
       </c>
       <c r="K18">
-        <v>0.9773191965425838</v>
+        <v>1.029109077595172</v>
       </c>
       <c r="L18">
-        <v>0.9605029817903222</v>
+        <v>1.017323219753769</v>
       </c>
       <c r="M18">
-        <v>0.9098124983094709</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.013704220104195</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9306854638083014</v>
+        <v>0.9973589410030455</v>
       </c>
       <c r="D19">
-        <v>0.9635587175278925</v>
+        <v>1.015974972209667</v>
       </c>
       <c r="E19">
-        <v>0.9464925932627908</v>
+        <v>1.004024594206195</v>
       </c>
       <c r="F19">
-        <v>0.8951729256373158</v>
+        <v>1.000492909158667</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01998711597682</v>
+        <v>1.044185555199733</v>
       </c>
       <c r="J19">
-        <v>0.9604977083191896</v>
+        <v>1.024386883866224</v>
       </c>
       <c r="K19">
-        <v>0.9779694814350396</v>
+        <v>1.029460442624116</v>
       </c>
       <c r="L19">
-        <v>0.9612336885496012</v>
+        <v>1.017710045080791</v>
       </c>
       <c r="M19">
-        <v>0.9110088733718591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.014238641991426</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9262752641754135</v>
+        <v>0.9948709350994441</v>
       </c>
       <c r="D20">
-        <v>0.9602528190288655</v>
+        <v>1.014081203247246</v>
       </c>
       <c r="E20">
-        <v>0.9428049388015328</v>
+        <v>1.001962953922366</v>
       </c>
       <c r="F20">
-        <v>0.8892858339797778</v>
+        <v>0.9977541242374264</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018738846078619</v>
+        <v>1.043084890632781</v>
       </c>
       <c r="J20">
-        <v>0.9569769726330102</v>
+        <v>1.022601015481189</v>
       </c>
       <c r="K20">
-        <v>0.9750325353789814</v>
+        <v>1.027880889620897</v>
       </c>
       <c r="L20">
-        <v>0.9579340134301904</v>
+        <v>1.015971374747073</v>
       </c>
       <c r="M20">
-        <v>0.9056014959733999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.011836579955051</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.911117359274675</v>
+        <v>0.986557185351071</v>
       </c>
       <c r="D21">
-        <v>0.9489119489880664</v>
+        <v>1.007760214688079</v>
       </c>
       <c r="E21">
-        <v>0.9301551894328516</v>
+        <v>0.9950842954908025</v>
       </c>
       <c r="F21">
-        <v>0.8689345676157181</v>
+        <v>0.9886061071352875</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014430074978738</v>
+        <v>1.039391491901234</v>
       </c>
       <c r="J21">
-        <v>0.9448661589709036</v>
+        <v>1.01662789900656</v>
       </c>
       <c r="K21">
-        <v>0.9649304494849539</v>
+        <v>1.022596043934046</v>
       </c>
       <c r="L21">
-        <v>0.946592698631618</v>
+        <v>1.010159399722288</v>
       </c>
       <c r="M21">
-        <v>0.8869117933238565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.003806604004837</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9008489386570909</v>
+        <v>0.981144398480492</v>
       </c>
       <c r="D22">
-        <v>0.9412502210008832</v>
+        <v>1.003651057868956</v>
       </c>
       <c r="E22">
-        <v>0.9216084221407769</v>
+        <v>0.9906145631422631</v>
       </c>
       <c r="F22">
-        <v>0.8550309129216838</v>
+        <v>0.982652631186138</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011498249767168</v>
+        <v>1.036975204289688</v>
       </c>
       <c r="J22">
-        <v>0.9366545123236092</v>
+        <v>1.012735085702519</v>
       </c>
       <c r="K22">
-        <v>0.9580828368198125</v>
+        <v>1.019150531918334</v>
       </c>
       <c r="L22">
-        <v>0.9389110367046448</v>
+        <v>1.006374268728287</v>
       </c>
       <c r="M22">
-        <v>0.8741486760270405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9985757578668157</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.90637058015879</v>
+        <v>0.9840323126108069</v>
       </c>
       <c r="D23">
-        <v>0.9453679381809666</v>
+        <v>1.005842807421135</v>
       </c>
       <c r="E23">
-        <v>0.9262019632729143</v>
+        <v>0.9929984596826887</v>
       </c>
       <c r="F23">
-        <v>0.8625200687846474</v>
+        <v>0.9858288177642966</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013075872846543</v>
+        <v>1.038265449814061</v>
       </c>
       <c r="J23">
-        <v>0.941070826070121</v>
+        <v>1.014812382594162</v>
       </c>
       <c r="K23">
-        <v>0.9617652559929982</v>
+        <v>1.020989248520053</v>
       </c>
       <c r="L23">
-        <v>0.9430414746504533</v>
+        <v>1.008393845547657</v>
       </c>
       <c r="M23">
-        <v>0.8810227751036379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.001366876379324</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9265184952393541</v>
+        <v>0.9950073611473503</v>
       </c>
       <c r="D24">
-        <v>0.9604350762193218</v>
+        <v>1.014185020631216</v>
       </c>
       <c r="E24">
-        <v>0.943008237004883</v>
+        <v>1.002075964069044</v>
       </c>
       <c r="F24">
-        <v>0.8896108929903623</v>
+        <v>0.9979042866798088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018807760774642</v>
+        <v>1.043145302052196</v>
       </c>
       <c r="J24">
-        <v>0.9571711853557122</v>
+        <v>1.022698962447372</v>
       </c>
       <c r="K24">
-        <v>0.9751945459924544</v>
+        <v>1.027967527981418</v>
       </c>
       <c r="L24">
-        <v>0.9581160012698289</v>
+        <v>1.016066721268184</v>
       </c>
       <c r="M24">
-        <v>0.9059000613448243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.011968305618979</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9473348149777613</v>
+        <v>1.007017183700608</v>
       </c>
       <c r="D25">
-        <v>0.9760611442162095</v>
+        <v>1.023334994904825</v>
       </c>
       <c r="E25">
-        <v>0.9604422427884542</v>
+        <v>1.012041030854335</v>
       </c>
       <c r="F25">
-        <v>0.917279711143144</v>
+        <v>1.011130808722993</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02467157004282</v>
+        <v>1.048435404767627</v>
       </c>
       <c r="J25">
-        <v>0.9737745426495731</v>
+        <v>1.031310677573468</v>
       </c>
       <c r="K25">
-        <v>0.9890428068154088</v>
+        <v>1.035581551549039</v>
       </c>
       <c r="L25">
-        <v>0.9736873380972485</v>
+        <v>1.024455257343756</v>
       </c>
       <c r="M25">
-        <v>0.9313139626234912</v>
+        <v>1.023558756045823</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016088328725654</v>
+        <v>1.045889371829667</v>
       </c>
       <c r="D2">
-        <v>1.03025887118119</v>
+        <v>1.04687021693114</v>
       </c>
       <c r="E2">
-        <v>1.019589117471803</v>
+        <v>1.043500555580079</v>
       </c>
       <c r="F2">
-        <v>1.021133113536663</v>
+        <v>1.054336992649198</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052389366031763</v>
+        <v>1.045805903132512</v>
       </c>
       <c r="J2">
-        <v>1.037798262583717</v>
+        <v>1.050946695619129</v>
       </c>
       <c r="K2">
-        <v>1.041312152660166</v>
+        <v>1.049634443028699</v>
       </c>
       <c r="L2">
-        <v>1.030782127257279</v>
+        <v>1.046274245442233</v>
       </c>
       <c r="M2">
-        <v>1.032305676901633</v>
+        <v>1.057080481744323</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02241326199065</v>
+        <v>1.047133903105041</v>
       </c>
       <c r="D3">
-        <v>1.035092210500333</v>
+        <v>1.047825673414587</v>
       </c>
       <c r="E3">
-        <v>1.024862745184541</v>
+        <v>1.04457458345226</v>
       </c>
       <c r="F3">
-        <v>1.028115250820494</v>
+        <v>1.055789571921185</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055121320414709</v>
+        <v>1.046257205973744</v>
       </c>
       <c r="J3">
-        <v>1.04231102310689</v>
+        <v>1.051837617078411</v>
       </c>
       <c r="K3">
-        <v>1.045294937206145</v>
+        <v>1.050401256093648</v>
       </c>
       <c r="L3">
-        <v>1.035187086771355</v>
+        <v>1.047158633558717</v>
       </c>
       <c r="M3">
-        <v>1.03840059902224</v>
+        <v>1.058344650361361</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026394503310628</v>
+        <v>1.047938346416962</v>
       </c>
       <c r="D4">
-        <v>1.038136627994408</v>
+        <v>1.048443102837044</v>
       </c>
       <c r="E4">
-        <v>1.028186676389781</v>
+        <v>1.045268922342316</v>
       </c>
       <c r="F4">
-        <v>1.032514110021707</v>
+        <v>1.05672901742829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056829124686938</v>
+        <v>1.046547473026928</v>
       </c>
       <c r="J4">
-        <v>1.045146312816789</v>
+        <v>1.052412749953195</v>
       </c>
       <c r="K4">
-        <v>1.047795574764629</v>
+        <v>1.050896002187085</v>
       </c>
       <c r="L4">
-        <v>1.037956410891516</v>
+        <v>1.047729670680783</v>
       </c>
       <c r="M4">
-        <v>1.042235337858413</v>
+        <v>1.059161666603921</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028042851374418</v>
+        <v>1.048276333986483</v>
       </c>
       <c r="D5">
-        <v>1.039397525561488</v>
+        <v>1.048702477078751</v>
       </c>
       <c r="E5">
-        <v>1.029563875863889</v>
+        <v>1.045560674189357</v>
       </c>
       <c r="F5">
-        <v>1.034336345775949</v>
+        <v>1.057123852329813</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057533325496649</v>
+        <v>1.046669082303922</v>
       </c>
       <c r="J5">
-        <v>1.046318895700142</v>
+        <v>1.052654214313694</v>
       </c>
       <c r="K5">
-        <v>1.048829340025101</v>
+        <v>1.05110365230463</v>
       </c>
       <c r="L5">
-        <v>1.039102124934087</v>
+        <v>1.0479694445691</v>
       </c>
       <c r="M5">
-        <v>1.043822629978294</v>
+        <v>1.059504908402244</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028318165034664</v>
+        <v>1.048333071936278</v>
       </c>
       <c r="D6">
-        <v>1.039608148415707</v>
+        <v>1.048746015889866</v>
       </c>
       <c r="E6">
-        <v>1.02979395792148</v>
+        <v>1.045609651984626</v>
       </c>
       <c r="F6">
-        <v>1.034640761614686</v>
+        <v>1.05719014064886</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057650773447651</v>
+        <v>1.046689476507696</v>
       </c>
       <c r="J6">
-        <v>1.046514667024971</v>
+        <v>1.052694738458494</v>
       </c>
       <c r="K6">
-        <v>1.049001909834686</v>
+        <v>1.051138497725822</v>
       </c>
       <c r="L6">
-        <v>1.039293434262463</v>
+        <v>1.048009686711805</v>
       </c>
       <c r="M6">
-        <v>1.044087722689539</v>
+        <v>1.059562526734064</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02641662663024</v>
+        <v>1.047942863406498</v>
       </c>
       <c r="D7">
-        <v>1.038153549570392</v>
+        <v>1.048446569364602</v>
       </c>
       <c r="E7">
-        <v>1.028205156629699</v>
+        <v>1.045272821324263</v>
       </c>
       <c r="F7">
-        <v>1.032538563245507</v>
+        <v>1.056734293650131</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056838587567852</v>
+        <v>1.04654909962064</v>
       </c>
       <c r="J7">
-        <v>1.045162055880011</v>
+        <v>1.052415977672115</v>
       </c>
       <c r="K7">
-        <v>1.047809455733039</v>
+        <v>1.050898778156112</v>
       </c>
       <c r="L7">
-        <v>1.037971791596088</v>
+        <v>1.047732875688418</v>
       </c>
       <c r="M7">
-        <v>1.042256643279687</v>
+        <v>1.059166253923498</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018249756319331</v>
+        <v>1.046310145440746</v>
       </c>
       <c r="D8">
-        <v>1.03191009330931</v>
+        <v>1.047193287830271</v>
       </c>
       <c r="E8">
-        <v>1.021390303373003</v>
+        <v>1.043863659977353</v>
       </c>
       <c r="F8">
-        <v>1.023518321593041</v>
+        <v>1.054827998806526</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053325427361301</v>
+        <v>1.045958787497203</v>
       </c>
       <c r="J8">
-        <v>1.039341499012803</v>
+        <v>1.051248068258152</v>
       </c>
       <c r="K8">
-        <v>1.042674497411151</v>
+        <v>1.0498938890488</v>
       </c>
       <c r="L8">
-        <v>1.032288119677503</v>
+        <v>1.046573382729362</v>
       </c>
       <c r="M8">
-        <v>1.034388873852287</v>
+        <v>1.057507919932786</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002941194470782</v>
+        <v>1.043426408670659</v>
       </c>
       <c r="D9">
-        <v>1.020227300846445</v>
+        <v>1.04497851584859</v>
       </c>
       <c r="E9">
-        <v>1.008655355480765</v>
+        <v>1.041375614666169</v>
       </c>
       <c r="F9">
-        <v>1.006640085422913</v>
+        <v>1.051465053358859</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046646519938782</v>
+        <v>1.044905069173747</v>
       </c>
       <c r="J9">
-        <v>1.028390517383814</v>
+        <v>1.049179593983747</v>
       </c>
       <c r="K9">
-        <v>1.03300051236233</v>
+        <v>1.048112080068682</v>
       </c>
       <c r="L9">
-        <v>1.021609549255702</v>
+        <v>1.044520755641527</v>
       </c>
       <c r="M9">
-        <v>1.019626342729509</v>
+        <v>1.054577993936815</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9920191659704016</v>
+        <v>1.041499205895601</v>
       </c>
       <c r="D10">
-        <v>1.011911732456808</v>
+        <v>1.043497618111977</v>
       </c>
       <c r="E10">
-        <v>0.9996016387442945</v>
+        <v>1.039713457489665</v>
       </c>
       <c r="F10">
-        <v>0.9946155839621853</v>
+        <v>1.049220235897896</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041820589749636</v>
+        <v>1.044193414691788</v>
       </c>
       <c r="J10">
-        <v>1.020553045248197</v>
+        <v>1.047793420712011</v>
       </c>
       <c r="K10">
-        <v>1.026069196722197</v>
+        <v>1.046916640737114</v>
       </c>
       <c r="L10">
-        <v>1.013978089453554</v>
+        <v>1.043145840574491</v>
       </c>
       <c r="M10">
-        <v>1.009082741033116</v>
+        <v>1.052619255702355</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9870944081582377</v>
+        <v>1.040663538485795</v>
       </c>
       <c r="D11">
-        <v>1.008168325547103</v>
+        <v>1.042855304358264</v>
       </c>
       <c r="E11">
-        <v>0.9955282973338938</v>
+        <v>1.038992870159661</v>
       </c>
       <c r="F11">
-        <v>0.989197087955144</v>
+        <v>1.048247462768925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039630832202304</v>
+        <v>1.043883063598792</v>
       </c>
       <c r="J11">
-        <v>1.01701410800358</v>
+        <v>1.047191452485615</v>
       </c>
       <c r="K11">
-        <v>1.022937825907177</v>
+        <v>1.046397178827658</v>
       </c>
       <c r="L11">
-        <v>1.010535039012099</v>
+        <v>1.042548913992352</v>
       </c>
       <c r="M11">
-        <v>1.004325648017897</v>
+        <v>1.051769748957503</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9852333027455927</v>
+        <v>1.040352953355362</v>
       </c>
       <c r="D12">
-        <v>1.006754712357417</v>
+        <v>1.042616556284926</v>
       </c>
       <c r="E12">
-        <v>0.9939904281639566</v>
+        <v>1.038725079351282</v>
       </c>
       <c r="F12">
-        <v>0.9871498256658534</v>
+        <v>1.047886012761747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038801306210757</v>
+        <v>1.043767453020669</v>
       </c>
       <c r="J12">
-        <v>1.015676035856796</v>
+        <v>1.046967589303074</v>
       </c>
       <c r="K12">
-        <v>1.021753636907762</v>
+        <v>1.04620395022464</v>
       </c>
       <c r="L12">
-        <v>1.009233674904057</v>
+        <v>1.042326948751026</v>
       </c>
       <c r="M12">
-        <v>1.002527426279947</v>
+        <v>1.051453994916259</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9856339993190704</v>
+        <v>1.040419583183463</v>
       </c>
       <c r="D13">
-        <v>1.007059014016831</v>
+        <v>1.042667776027</v>
       </c>
       <c r="E13">
-        <v>0.9943214629159643</v>
+        <v>1.038782527437657</v>
       </c>
       <c r="F13">
-        <v>0.9875905837379751</v>
+        <v>1.0479635504813</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03897999255692</v>
+        <v>1.043792266951896</v>
       </c>
       <c r="J13">
-        <v>1.015964152632008</v>
+        <v>1.047015620773926</v>
       </c>
       <c r="K13">
-        <v>1.022008628654482</v>
+        <v>1.046245411006618</v>
       </c>
       <c r="L13">
-        <v>1.009513866766457</v>
+        <v>1.042374571961278</v>
       </c>
       <c r="M13">
-        <v>1.002914606131964</v>
+        <v>1.051521734787835</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9869412332234504</v>
+        <v>1.040637869140737</v>
       </c>
       <c r="D14">
-        <v>1.00805195853035</v>
+        <v>1.042835572731676</v>
       </c>
       <c r="E14">
-        <v>0.9954016949873385</v>
+        <v>1.03897073721033</v>
       </c>
       <c r="F14">
-        <v>0.9890285834411222</v>
+        <v>1.048217587654319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039562599721863</v>
+        <v>1.043873513983123</v>
       </c>
       <c r="J14">
-        <v>1.016903993721406</v>
+        <v>1.04717295331653</v>
       </c>
       <c r="K14">
-        <v>1.022840379446435</v>
+        <v>1.046381212163206</v>
       </c>
       <c r="L14">
-        <v>1.010427936218335</v>
+        <v>1.042530571191452</v>
       </c>
       <c r="M14">
-        <v>1.004177658514309</v>
+        <v>1.051743652931262</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9877423666482196</v>
+        <v>1.040772338201523</v>
       </c>
       <c r="D15">
-        <v>1.008660623233399</v>
+        <v>1.042938935990386</v>
       </c>
       <c r="E15">
-        <v>0.9960639097751335</v>
+        <v>1.039086681802361</v>
       </c>
       <c r="F15">
-        <v>0.989909910464172</v>
+        <v>1.048374092433187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03991938739988</v>
+        <v>1.04392352886399</v>
       </c>
       <c r="J15">
-        <v>1.017479884738167</v>
+        <v>1.047269855831459</v>
       </c>
       <c r="K15">
-        <v>1.023350009812379</v>
+        <v>1.046464846913092</v>
       </c>
       <c r="L15">
-        <v>1.0109880959046</v>
+        <v>1.042626655560328</v>
       </c>
       <c r="M15">
-        <v>1.004951651518207</v>
+        <v>1.051880356122687</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9923416837761727</v>
+        <v>1.041554641241167</v>
       </c>
       <c r="D16">
-        <v>1.012157022055198</v>
+        <v>1.04354022348431</v>
       </c>
       <c r="E16">
-        <v>0.9998685949643565</v>
+        <v>1.039761262070843</v>
       </c>
       <c r="F16">
-        <v>0.9949704999154864</v>
+        <v>1.04928477930771</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041963715521879</v>
+        <v>1.044213965163464</v>
       </c>
       <c r="J16">
-        <v>1.020784709129574</v>
+        <v>1.04783333431287</v>
       </c>
       <c r="K16">
-        <v>1.026274149442225</v>
+        <v>1.046951076964056</v>
       </c>
       <c r="L16">
-        <v>1.014203537652357</v>
+        <v>1.043185423108247</v>
       </c>
       <c r="M16">
-        <v>1.009394214495875</v>
+        <v>1.052675605578558</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9951727308586849</v>
+        <v>1.042045041362801</v>
       </c>
       <c r="D17">
-        <v>1.014310867396598</v>
+        <v>1.04391710553441</v>
       </c>
       <c r="E17">
-        <v>1.002212955779037</v>
+        <v>1.040184175447482</v>
       </c>
       <c r="F17">
-        <v>0.998086309277767</v>
+        <v>1.049855823665824</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043218521214668</v>
+        <v>1.044395557882023</v>
       </c>
       <c r="J17">
-        <v>1.022817686204764</v>
+        <v>1.048186319856693</v>
       </c>
       <c r="K17">
-        <v>1.028072543270599</v>
+        <v>1.047255584802616</v>
       </c>
       <c r="L17">
-        <v>1.016182294803036</v>
+        <v>1.043535498393639</v>
       </c>
       <c r="M17">
-        <v>1.01212797583076</v>
+        <v>1.053174076830344</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9968053556470124</v>
+        <v>1.042330970298463</v>
       </c>
       <c r="D18">
-        <v>1.015553524067382</v>
+        <v>1.04413683088823</v>
       </c>
       <c r="E18">
-        <v>1.003565753300944</v>
+        <v>1.040430770672203</v>
       </c>
       <c r="F18">
-        <v>0.9998834749835352</v>
+        <v>1.050188831976002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043940851679197</v>
+        <v>1.044501265698903</v>
       </c>
       <c r="J18">
-        <v>1.023989598450185</v>
+        <v>1.048392042091708</v>
       </c>
       <c r="K18">
-        <v>1.029109077595172</v>
+        <v>1.047433022796066</v>
       </c>
       <c r="L18">
-        <v>1.017323219753769</v>
+        <v>1.043739539201534</v>
       </c>
       <c r="M18">
-        <v>1.013704220104195</v>
+        <v>1.053464695786015</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9973589410030455</v>
+        <v>1.042428445614691</v>
       </c>
       <c r="D19">
-        <v>1.015974972209667</v>
+        <v>1.044211734066493</v>
       </c>
       <c r="E19">
-        <v>1.004024594206195</v>
+        <v>1.0405148392855</v>
       </c>
       <c r="F19">
-        <v>1.000492909158667</v>
+        <v>1.050302367129554</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044185555199733</v>
+        <v>1.044537273404739</v>
       </c>
       <c r="J19">
-        <v>1.024386883866224</v>
+        <v>1.048462159609452</v>
       </c>
       <c r="K19">
-        <v>1.029460442624116</v>
+        <v>1.047493494743891</v>
       </c>
       <c r="L19">
-        <v>1.017710045080791</v>
+        <v>1.0438090861172</v>
       </c>
       <c r="M19">
-        <v>1.014238641991426</v>
+        <v>1.053563767290508</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9948709350994441</v>
+        <v>1.04199243780844</v>
       </c>
       <c r="D20">
-        <v>1.014081203247246</v>
+        <v>1.04387668038974</v>
       </c>
       <c r="E20">
-        <v>1.001962953922366</v>
+        <v>1.040138809452026</v>
       </c>
       <c r="F20">
-        <v>0.9977541242374264</v>
+        <v>1.049794563521774</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043084890632781</v>
+        <v>1.044376096658848</v>
       </c>
       <c r="J20">
-        <v>1.022601015481189</v>
+        <v>1.048148465275616</v>
       </c>
       <c r="K20">
-        <v>1.027880889620897</v>
+        <v>1.04722293224601</v>
       </c>
       <c r="L20">
-        <v>1.015971374747073</v>
+        <v>1.043497954391348</v>
       </c>
       <c r="M20">
-        <v>1.011836579955051</v>
+        <v>1.053120609159387</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.986557185351071</v>
+        <v>1.040573594400016</v>
       </c>
       <c r="D21">
-        <v>1.007760214688079</v>
+        <v>1.042786165336576</v>
       </c>
       <c r="E21">
-        <v>0.9950842954908025</v>
+        <v>1.038915317807898</v>
       </c>
       <c r="F21">
-        <v>0.9886061071352875</v>
+        <v>1.04814278336286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039391491901234</v>
+        <v>1.043849597947128</v>
       </c>
       <c r="J21">
-        <v>1.01662789900656</v>
+        <v>1.04712663015457</v>
       </c>
       <c r="K21">
-        <v>1.022596043934046</v>
+        <v>1.046341229783433</v>
       </c>
       <c r="L21">
-        <v>1.010159399722288</v>
+        <v>1.042484639958172</v>
       </c>
       <c r="M21">
-        <v>1.003806604004837</v>
+        <v>1.051678309390758</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.981144398480492</v>
+        <v>1.039680461572221</v>
       </c>
       <c r="D22">
-        <v>1.003651057868956</v>
+        <v>1.042099564241415</v>
       </c>
       <c r="E22">
-        <v>0.9906145631422631</v>
+        <v>1.038145291410308</v>
       </c>
       <c r="F22">
-        <v>0.982652631186138</v>
+        <v>1.04710355368946</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036975204289688</v>
+        <v>1.043516643439252</v>
       </c>
       <c r="J22">
-        <v>1.012735085702519</v>
+        <v>1.04648262492218</v>
       </c>
       <c r="K22">
-        <v>1.019150531918334</v>
+        <v>1.045785262677193</v>
       </c>
       <c r="L22">
-        <v>1.006374268728287</v>
+        <v>1.041846138207116</v>
       </c>
       <c r="M22">
-        <v>0.9985757578668157</v>
+        <v>1.050770264164666</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9840323126108069</v>
+        <v>1.040154029146482</v>
       </c>
       <c r="D23">
-        <v>1.005842807421135</v>
+        <v>1.042463635488442</v>
       </c>
       <c r="E23">
-        <v>0.9929984596826887</v>
+        <v>1.038553570849414</v>
       </c>
       <c r="F23">
-        <v>0.9858288177642966</v>
+        <v>1.047654536315797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038265449814061</v>
+        <v>1.043693331899944</v>
       </c>
       <c r="J23">
-        <v>1.014812382594162</v>
+        <v>1.046824170988425</v>
       </c>
       <c r="K23">
-        <v>1.020989248520053</v>
+        <v>1.046080144427978</v>
       </c>
       <c r="L23">
-        <v>1.008393845547657</v>
+        <v>1.042184752851462</v>
       </c>
       <c r="M23">
-        <v>1.001366876379324</v>
+        <v>1.051251752899726</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9950073611473503</v>
+        <v>1.042016207439799</v>
       </c>
       <c r="D24">
-        <v>1.014185020631216</v>
+        <v>1.043894947092489</v>
       </c>
       <c r="E24">
-        <v>1.002075964069044</v>
+        <v>1.040159308648964</v>
       </c>
       <c r="F24">
-        <v>0.9979042866798088</v>
+        <v>1.049822244566724</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043145302052196</v>
+        <v>1.044384891003312</v>
       </c>
       <c r="J24">
-        <v>1.022698962447372</v>
+        <v>1.048165570651146</v>
       </c>
       <c r="K24">
-        <v>1.027967527981418</v>
+        <v>1.0472376870754</v>
       </c>
       <c r="L24">
-        <v>1.016066721268184</v>
+        <v>1.043514919380038</v>
       </c>
       <c r="M24">
-        <v>1.011968305618979</v>
+        <v>1.053144769302551</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007017183700608</v>
+        <v>1.044172737943936</v>
       </c>
       <c r="D25">
-        <v>1.023334994904825</v>
+        <v>1.045551850659486</v>
       </c>
       <c r="E25">
-        <v>1.012041030854335</v>
+        <v>1.042019432846231</v>
       </c>
       <c r="F25">
-        <v>1.011130808722993</v>
+        <v>1.052334936899115</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048435404767627</v>
+        <v>1.045179091234905</v>
       </c>
       <c r="J25">
-        <v>1.031310677573468</v>
+        <v>1.049715600343951</v>
       </c>
       <c r="K25">
-        <v>1.035581551549039</v>
+        <v>1.048574044759458</v>
       </c>
       <c r="L25">
-        <v>1.024455257343756</v>
+        <v>1.04505254364996</v>
       </c>
       <c r="M25">
-        <v>1.023558756045823</v>
+        <v>1.055336392457732</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045889371829667</v>
+        <v>1.016088328725653</v>
       </c>
       <c r="D2">
-        <v>1.04687021693114</v>
+        <v>1.03025887118119</v>
       </c>
       <c r="E2">
-        <v>1.043500555580079</v>
+        <v>1.019589117471803</v>
       </c>
       <c r="F2">
-        <v>1.054336992649198</v>
+        <v>1.021133113536662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045805903132512</v>
+        <v>1.052389366031763</v>
       </c>
       <c r="J2">
-        <v>1.050946695619129</v>
+        <v>1.037798262583717</v>
       </c>
       <c r="K2">
-        <v>1.049634443028699</v>
+        <v>1.041312152660165</v>
       </c>
       <c r="L2">
-        <v>1.046274245442233</v>
+        <v>1.030782127257278</v>
       </c>
       <c r="M2">
-        <v>1.057080481744323</v>
+        <v>1.032305676901632</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047133903105041</v>
+        <v>1.02241326199065</v>
       </c>
       <c r="D3">
-        <v>1.047825673414587</v>
+        <v>1.035092210500333</v>
       </c>
       <c r="E3">
-        <v>1.04457458345226</v>
+        <v>1.024862745184541</v>
       </c>
       <c r="F3">
-        <v>1.055789571921185</v>
+        <v>1.028115250820494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046257205973744</v>
+        <v>1.055121320414709</v>
       </c>
       <c r="J3">
-        <v>1.051837617078411</v>
+        <v>1.04231102310689</v>
       </c>
       <c r="K3">
-        <v>1.050401256093648</v>
+        <v>1.045294937206145</v>
       </c>
       <c r="L3">
-        <v>1.047158633558717</v>
+        <v>1.035187086771355</v>
       </c>
       <c r="M3">
-        <v>1.058344650361361</v>
+        <v>1.038400599022239</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047938346416962</v>
+        <v>1.026394503310627</v>
       </c>
       <c r="D4">
-        <v>1.048443102837044</v>
+        <v>1.038136627994407</v>
       </c>
       <c r="E4">
-        <v>1.045268922342316</v>
+        <v>1.02818667638978</v>
       </c>
       <c r="F4">
-        <v>1.05672901742829</v>
+        <v>1.032514110021706</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046547473026928</v>
+        <v>1.056829124686937</v>
       </c>
       <c r="J4">
-        <v>1.052412749953195</v>
+        <v>1.045146312816788</v>
       </c>
       <c r="K4">
-        <v>1.050896002187085</v>
+        <v>1.047795574764628</v>
       </c>
       <c r="L4">
-        <v>1.047729670680783</v>
+        <v>1.037956410891515</v>
       </c>
       <c r="M4">
-        <v>1.059161666603921</v>
+        <v>1.042235337858412</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048276333986483</v>
+        <v>1.028042851374417</v>
       </c>
       <c r="D5">
-        <v>1.048702477078751</v>
+        <v>1.039397525561488</v>
       </c>
       <c r="E5">
-        <v>1.045560674189357</v>
+        <v>1.029563875863889</v>
       </c>
       <c r="F5">
-        <v>1.057123852329813</v>
+        <v>1.034336345775948</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046669082303922</v>
+        <v>1.057533325496649</v>
       </c>
       <c r="J5">
-        <v>1.052654214313694</v>
+        <v>1.046318895700141</v>
       </c>
       <c r="K5">
-        <v>1.05110365230463</v>
+        <v>1.0488293400251</v>
       </c>
       <c r="L5">
-        <v>1.0479694445691</v>
+        <v>1.039102124934087</v>
       </c>
       <c r="M5">
-        <v>1.059504908402244</v>
+        <v>1.043822629978293</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048333071936278</v>
+        <v>1.028318165034663</v>
       </c>
       <c r="D6">
-        <v>1.048746015889866</v>
+        <v>1.039608148415706</v>
       </c>
       <c r="E6">
-        <v>1.045609651984626</v>
+        <v>1.029793957921479</v>
       </c>
       <c r="F6">
-        <v>1.05719014064886</v>
+        <v>1.034640761614686</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046689476507696</v>
+        <v>1.05765077344765</v>
       </c>
       <c r="J6">
-        <v>1.052694738458494</v>
+        <v>1.046514667024971</v>
       </c>
       <c r="K6">
-        <v>1.051138497725822</v>
+        <v>1.049001909834686</v>
       </c>
       <c r="L6">
-        <v>1.048009686711805</v>
+        <v>1.039293434262462</v>
       </c>
       <c r="M6">
-        <v>1.059562526734064</v>
+        <v>1.044087722689538</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047942863406498</v>
+        <v>1.026416626630241</v>
       </c>
       <c r="D7">
-        <v>1.048446569364602</v>
+        <v>1.038153549570393</v>
       </c>
       <c r="E7">
-        <v>1.045272821324263</v>
+        <v>1.028205156629699</v>
       </c>
       <c r="F7">
-        <v>1.056734293650131</v>
+        <v>1.032538563245507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04654909962064</v>
+        <v>1.056838587567853</v>
       </c>
       <c r="J7">
-        <v>1.052415977672115</v>
+        <v>1.045162055880012</v>
       </c>
       <c r="K7">
-        <v>1.050898778156112</v>
+        <v>1.047809455733039</v>
       </c>
       <c r="L7">
-        <v>1.047732875688418</v>
+        <v>1.037971791596089</v>
       </c>
       <c r="M7">
-        <v>1.059166253923498</v>
+        <v>1.042256643279687</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046310145440746</v>
+        <v>1.018249756319332</v>
       </c>
       <c r="D8">
-        <v>1.047193287830271</v>
+        <v>1.031910093309311</v>
       </c>
       <c r="E8">
-        <v>1.043863659977353</v>
+        <v>1.021390303373005</v>
       </c>
       <c r="F8">
-        <v>1.054827998806526</v>
+        <v>1.023518321593043</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045958787497203</v>
+        <v>1.053325427361302</v>
       </c>
       <c r="J8">
-        <v>1.051248068258152</v>
+        <v>1.039341499012804</v>
       </c>
       <c r="K8">
-        <v>1.0498938890488</v>
+        <v>1.042674497411152</v>
       </c>
       <c r="L8">
-        <v>1.046573382729362</v>
+        <v>1.032288119677505</v>
       </c>
       <c r="M8">
-        <v>1.057507919932786</v>
+        <v>1.034388873852289</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043426408670659</v>
+        <v>1.00294119447078</v>
       </c>
       <c r="D9">
-        <v>1.04497851584859</v>
+        <v>1.020227300846443</v>
       </c>
       <c r="E9">
-        <v>1.041375614666169</v>
+        <v>1.008655355480763</v>
       </c>
       <c r="F9">
-        <v>1.051465053358859</v>
+        <v>1.006640085422911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044905069173747</v>
+        <v>1.046646519938781</v>
       </c>
       <c r="J9">
-        <v>1.049179593983747</v>
+        <v>1.028390517383812</v>
       </c>
       <c r="K9">
-        <v>1.048112080068682</v>
+        <v>1.033000512362328</v>
       </c>
       <c r="L9">
-        <v>1.044520755641527</v>
+        <v>1.0216095492557</v>
       </c>
       <c r="M9">
-        <v>1.054577993936815</v>
+        <v>1.019626342729507</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041499205895601</v>
+        <v>0.9920191659704006</v>
       </c>
       <c r="D10">
-        <v>1.043497618111977</v>
+        <v>1.011911732456807</v>
       </c>
       <c r="E10">
-        <v>1.039713457489665</v>
+        <v>0.9996016387442936</v>
       </c>
       <c r="F10">
-        <v>1.049220235897896</v>
+        <v>0.9946155839621846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044193414691788</v>
+        <v>1.041820589749636</v>
       </c>
       <c r="J10">
-        <v>1.047793420712011</v>
+        <v>1.020553045248197</v>
       </c>
       <c r="K10">
-        <v>1.046916640737114</v>
+        <v>1.026069196722196</v>
       </c>
       <c r="L10">
-        <v>1.043145840574491</v>
+        <v>1.013978089453553</v>
       </c>
       <c r="M10">
-        <v>1.052619255702355</v>
+        <v>1.009082741033115</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040663538485795</v>
+        <v>0.9870944081582359</v>
       </c>
       <c r="D11">
-        <v>1.042855304358264</v>
+        <v>1.008168325547101</v>
       </c>
       <c r="E11">
-        <v>1.038992870159661</v>
+        <v>0.9955282973338923</v>
       </c>
       <c r="F11">
-        <v>1.048247462768925</v>
+        <v>0.9891970879551425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043883063598792</v>
+        <v>1.039630832202303</v>
       </c>
       <c r="J11">
-        <v>1.047191452485615</v>
+        <v>1.017014108003579</v>
       </c>
       <c r="K11">
-        <v>1.046397178827658</v>
+        <v>1.022937825907175</v>
       </c>
       <c r="L11">
-        <v>1.042548913992352</v>
+        <v>1.010535039012097</v>
       </c>
       <c r="M11">
-        <v>1.051769748957503</v>
+        <v>1.004325648017895</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040352953355362</v>
+        <v>0.9852333027455933</v>
       </c>
       <c r="D12">
-        <v>1.042616556284926</v>
+        <v>1.006754712357418</v>
       </c>
       <c r="E12">
-        <v>1.038725079351282</v>
+        <v>0.9939904281639573</v>
       </c>
       <c r="F12">
-        <v>1.047886012761747</v>
+        <v>0.9871498256658537</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043767453020669</v>
+        <v>1.038801306210757</v>
       </c>
       <c r="J12">
-        <v>1.046967589303074</v>
+        <v>1.015676035856796</v>
       </c>
       <c r="K12">
-        <v>1.04620395022464</v>
+        <v>1.021753636907762</v>
       </c>
       <c r="L12">
-        <v>1.042326948751026</v>
+        <v>1.009233674904058</v>
       </c>
       <c r="M12">
-        <v>1.051453994916259</v>
+        <v>1.002527426279947</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040419583183463</v>
+        <v>0.9856339993190714</v>
       </c>
       <c r="D13">
-        <v>1.042667776027</v>
+        <v>1.007059014016831</v>
       </c>
       <c r="E13">
-        <v>1.038782527437657</v>
+        <v>0.9943214629159651</v>
       </c>
       <c r="F13">
-        <v>1.0479635504813</v>
+        <v>0.987590583737976</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043792266951896</v>
+        <v>1.03897999255692</v>
       </c>
       <c r="J13">
-        <v>1.047015620773926</v>
+        <v>1.015964152632008</v>
       </c>
       <c r="K13">
-        <v>1.046245411006618</v>
+        <v>1.022008628654482</v>
       </c>
       <c r="L13">
-        <v>1.042374571961278</v>
+        <v>1.009513866766458</v>
       </c>
       <c r="M13">
-        <v>1.051521734787835</v>
+        <v>1.002914606131965</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040637869140737</v>
+        <v>0.9869412332234482</v>
       </c>
       <c r="D14">
-        <v>1.042835572731676</v>
+        <v>1.008051958530348</v>
       </c>
       <c r="E14">
-        <v>1.03897073721033</v>
+        <v>0.9954016949873368</v>
       </c>
       <c r="F14">
-        <v>1.048217587654319</v>
+        <v>0.9890285834411203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043873513983123</v>
+        <v>1.039562599721862</v>
       </c>
       <c r="J14">
-        <v>1.04717295331653</v>
+        <v>1.016903993721404</v>
       </c>
       <c r="K14">
-        <v>1.046381212163206</v>
+        <v>1.022840379446433</v>
       </c>
       <c r="L14">
-        <v>1.042530571191452</v>
+        <v>1.010427936218333</v>
       </c>
       <c r="M14">
-        <v>1.051743652931262</v>
+        <v>1.004177658514307</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040772338201523</v>
+        <v>0.9877423666482205</v>
       </c>
       <c r="D15">
-        <v>1.042938935990386</v>
+        <v>1.0086606232334</v>
       </c>
       <c r="E15">
-        <v>1.039086681802361</v>
+        <v>0.9960639097751338</v>
       </c>
       <c r="F15">
-        <v>1.048374092433187</v>
+        <v>0.9899099104641731</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04392352886399</v>
+        <v>1.03991938739988</v>
       </c>
       <c r="J15">
-        <v>1.047269855831459</v>
+        <v>1.017479884738168</v>
       </c>
       <c r="K15">
-        <v>1.046464846913092</v>
+        <v>1.02335000981238</v>
       </c>
       <c r="L15">
-        <v>1.042626655560328</v>
+        <v>1.010988095904601</v>
       </c>
       <c r="M15">
-        <v>1.051880356122687</v>
+        <v>1.004951651518208</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041554641241167</v>
+        <v>0.9923416837761725</v>
       </c>
       <c r="D16">
-        <v>1.04354022348431</v>
+        <v>1.012157022055198</v>
       </c>
       <c r="E16">
-        <v>1.039761262070843</v>
+        <v>0.9998685949643561</v>
       </c>
       <c r="F16">
-        <v>1.04928477930771</v>
+        <v>0.9949704999154858</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044213965163464</v>
+        <v>1.041963715521879</v>
       </c>
       <c r="J16">
-        <v>1.04783333431287</v>
+        <v>1.020784709129573</v>
       </c>
       <c r="K16">
-        <v>1.046951076964056</v>
+        <v>1.026274149442225</v>
       </c>
       <c r="L16">
-        <v>1.043185423108247</v>
+        <v>1.014203537652357</v>
       </c>
       <c r="M16">
-        <v>1.052675605578558</v>
+        <v>1.009394214495875</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042045041362801</v>
+        <v>0.9951727308586862</v>
       </c>
       <c r="D17">
-        <v>1.04391710553441</v>
+        <v>1.014310867396599</v>
       </c>
       <c r="E17">
-        <v>1.040184175447482</v>
+        <v>1.002212955779038</v>
       </c>
       <c r="F17">
-        <v>1.049855823665824</v>
+        <v>0.9980863092777683</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044395557882023</v>
+        <v>1.043218521214669</v>
       </c>
       <c r="J17">
-        <v>1.048186319856693</v>
+        <v>1.022817686204765</v>
       </c>
       <c r="K17">
-        <v>1.047255584802616</v>
+        <v>1.0280725432706</v>
       </c>
       <c r="L17">
-        <v>1.043535498393639</v>
+        <v>1.016182294803037</v>
       </c>
       <c r="M17">
-        <v>1.053174076830344</v>
+        <v>1.012127975830762</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042330970298463</v>
+        <v>0.9968053556470127</v>
       </c>
       <c r="D18">
-        <v>1.04413683088823</v>
+        <v>1.015553524067383</v>
       </c>
       <c r="E18">
-        <v>1.040430770672203</v>
+        <v>1.003565753300945</v>
       </c>
       <c r="F18">
-        <v>1.050188831976002</v>
+        <v>0.9998834749835354</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044501265698903</v>
+        <v>1.043940851679197</v>
       </c>
       <c r="J18">
-        <v>1.048392042091708</v>
+        <v>1.023989598450185</v>
       </c>
       <c r="K18">
-        <v>1.047433022796066</v>
+        <v>1.029109077595173</v>
       </c>
       <c r="L18">
-        <v>1.043739539201534</v>
+        <v>1.017323219753769</v>
       </c>
       <c r="M18">
-        <v>1.053464695786015</v>
+        <v>1.013704220104195</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042428445614691</v>
+        <v>0.9973589410030455</v>
       </c>
       <c r="D19">
-        <v>1.044211734066493</v>
+        <v>1.015974972209667</v>
       </c>
       <c r="E19">
-        <v>1.0405148392855</v>
+        <v>1.004024594206195</v>
       </c>
       <c r="F19">
-        <v>1.050302367129554</v>
+        <v>1.000492909158668</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044537273404739</v>
+        <v>1.044185555199734</v>
       </c>
       <c r="J19">
-        <v>1.048462159609452</v>
+        <v>1.024386883866224</v>
       </c>
       <c r="K19">
-        <v>1.047493494743891</v>
+        <v>1.029460442624116</v>
       </c>
       <c r="L19">
-        <v>1.0438090861172</v>
+        <v>1.017710045080791</v>
       </c>
       <c r="M19">
-        <v>1.053563767290508</v>
+        <v>1.014238641991426</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04199243780844</v>
+        <v>0.9948709350994422</v>
       </c>
       <c r="D20">
-        <v>1.04387668038974</v>
+        <v>1.014081203247244</v>
       </c>
       <c r="E20">
-        <v>1.040138809452026</v>
+        <v>1.001962953922365</v>
       </c>
       <c r="F20">
-        <v>1.049794563521774</v>
+        <v>0.9977541242374247</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044376096658848</v>
+        <v>1.04308489063278</v>
       </c>
       <c r="J20">
-        <v>1.048148465275616</v>
+        <v>1.022601015481188</v>
       </c>
       <c r="K20">
-        <v>1.04722293224601</v>
+        <v>1.027880889620896</v>
       </c>
       <c r="L20">
-        <v>1.043497954391348</v>
+        <v>1.015971374747071</v>
       </c>
       <c r="M20">
-        <v>1.053120609159387</v>
+        <v>1.01183657995505</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040573594400016</v>
+        <v>0.98655718535107</v>
       </c>
       <c r="D21">
-        <v>1.042786165336576</v>
+        <v>1.007760214688078</v>
       </c>
       <c r="E21">
-        <v>1.038915317807898</v>
+        <v>0.9950842954908015</v>
       </c>
       <c r="F21">
-        <v>1.04814278336286</v>
+        <v>0.9886061071352862</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043849597947128</v>
+        <v>1.039391491901233</v>
       </c>
       <c r="J21">
-        <v>1.04712663015457</v>
+        <v>1.016627899006559</v>
       </c>
       <c r="K21">
-        <v>1.046341229783433</v>
+        <v>1.022596043934044</v>
       </c>
       <c r="L21">
-        <v>1.042484639958172</v>
+        <v>1.010159399722287</v>
       </c>
       <c r="M21">
-        <v>1.051678309390758</v>
+        <v>1.003806604004836</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039680461572221</v>
+        <v>0.9811443984804918</v>
       </c>
       <c r="D22">
-        <v>1.042099564241415</v>
+        <v>1.003651057868956</v>
       </c>
       <c r="E22">
-        <v>1.038145291410308</v>
+        <v>0.9906145631422628</v>
       </c>
       <c r="F22">
-        <v>1.04710355368946</v>
+        <v>0.982652631186138</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043516643439252</v>
+        <v>1.036975204289687</v>
       </c>
       <c r="J22">
-        <v>1.04648262492218</v>
+        <v>1.012735085702519</v>
       </c>
       <c r="K22">
-        <v>1.045785262677193</v>
+        <v>1.019150531918334</v>
       </c>
       <c r="L22">
-        <v>1.041846138207116</v>
+        <v>1.006374268728287</v>
       </c>
       <c r="M22">
-        <v>1.050770264164666</v>
+        <v>0.9985757578668157</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040154029146482</v>
+        <v>0.9840323126108084</v>
       </c>
       <c r="D23">
-        <v>1.042463635488442</v>
+        <v>1.005842807421136</v>
       </c>
       <c r="E23">
-        <v>1.038553570849414</v>
+        <v>0.9929984596826897</v>
       </c>
       <c r="F23">
-        <v>1.047654536315797</v>
+        <v>0.9858288177642978</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043693331899944</v>
+        <v>1.038265449814062</v>
       </c>
       <c r="J23">
-        <v>1.046824170988425</v>
+        <v>1.014812382594163</v>
       </c>
       <c r="K23">
-        <v>1.046080144427978</v>
+        <v>1.020989248520054</v>
       </c>
       <c r="L23">
-        <v>1.042184752851462</v>
+        <v>1.008393845547658</v>
       </c>
       <c r="M23">
-        <v>1.051251752899726</v>
+        <v>1.001366876379325</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042016207439799</v>
+        <v>0.9950073611473507</v>
       </c>
       <c r="D24">
-        <v>1.043894947092489</v>
+        <v>1.014185020631216</v>
       </c>
       <c r="E24">
-        <v>1.040159308648964</v>
+        <v>1.002075964069044</v>
       </c>
       <c r="F24">
-        <v>1.049822244566724</v>
+        <v>0.997904286679809</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044384891003312</v>
+        <v>1.043145302052196</v>
       </c>
       <c r="J24">
-        <v>1.048165570651146</v>
+        <v>1.022698962447372</v>
       </c>
       <c r="K24">
-        <v>1.0472376870754</v>
+        <v>1.027967527981418</v>
       </c>
       <c r="L24">
-        <v>1.043514919380038</v>
+        <v>1.016066721268184</v>
       </c>
       <c r="M24">
-        <v>1.053144769302551</v>
+        <v>1.01196830561898</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044172737943936</v>
+        <v>1.007017183700609</v>
       </c>
       <c r="D25">
-        <v>1.045551850659486</v>
+        <v>1.023334994904826</v>
       </c>
       <c r="E25">
-        <v>1.042019432846231</v>
+        <v>1.012041030854335</v>
       </c>
       <c r="F25">
-        <v>1.052334936899115</v>
+        <v>1.011130808722993</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045179091234905</v>
+        <v>1.048435404767627</v>
       </c>
       <c r="J25">
-        <v>1.049715600343951</v>
+        <v>1.031310677573468</v>
       </c>
       <c r="K25">
-        <v>1.048574044759458</v>
+        <v>1.03558155154904</v>
       </c>
       <c r="L25">
-        <v>1.04505254364996</v>
+        <v>1.024455257343756</v>
       </c>
       <c r="M25">
-        <v>1.055336392457732</v>
+        <v>1.023558756045823</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016088328725653</v>
+        <v>0.9928115402522319</v>
       </c>
       <c r="D2">
-        <v>1.03025887118119</v>
+        <v>1.014045172346797</v>
       </c>
       <c r="E2">
-        <v>1.019589117471803</v>
+        <v>0.9996324881079641</v>
       </c>
       <c r="F2">
-        <v>1.021133113536662</v>
+        <v>1.013508206298133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052389366031763</v>
+        <v>1.040125079787985</v>
       </c>
       <c r="J2">
-        <v>1.037798262583717</v>
+        <v>1.01520940351558</v>
       </c>
       <c r="K2">
-        <v>1.041312152660165</v>
+        <v>1.025312242917756</v>
       </c>
       <c r="L2">
-        <v>1.030782127257278</v>
+        <v>1.011096945329826</v>
       </c>
       <c r="M2">
-        <v>1.032305676901632</v>
+        <v>1.024782504222656</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028185973013313</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.028968028900948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02241326199065</v>
+        <v>0.9987162596412559</v>
       </c>
       <c r="D3">
-        <v>1.035092210500333</v>
+        <v>1.017958169220335</v>
       </c>
       <c r="E3">
-        <v>1.024862745184541</v>
+        <v>1.004507100850281</v>
       </c>
       <c r="F3">
-        <v>1.028115250820494</v>
+        <v>1.017474844169084</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055121320414709</v>
+        <v>1.041350310615623</v>
       </c>
       <c r="J3">
-        <v>1.04231102310689</v>
+        <v>1.019241981995862</v>
       </c>
       <c r="K3">
-        <v>1.045294937206145</v>
+        <v>1.028366314662912</v>
       </c>
       <c r="L3">
-        <v>1.035187086771355</v>
+        <v>1.01508263548086</v>
       </c>
       <c r="M3">
-        <v>1.038400599022239</v>
+        <v>1.027888908907355</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030644522632164</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031124886486475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026394503310627</v>
+        <v>1.00243638263285</v>
       </c>
       <c r="D4">
-        <v>1.038136627994407</v>
+        <v>1.020425918593171</v>
       </c>
       <c r="E4">
-        <v>1.02818667638978</v>
+        <v>1.007583460358732</v>
       </c>
       <c r="F4">
-        <v>1.032514110021706</v>
+        <v>1.019987018861867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056829124686937</v>
+        <v>1.04210957603626</v>
       </c>
       <c r="J4">
-        <v>1.045146312816788</v>
+        <v>1.021777970158712</v>
       </c>
       <c r="K4">
-        <v>1.047795574764628</v>
+        <v>1.030283916086807</v>
       </c>
       <c r="L4">
-        <v>1.037956410891515</v>
+        <v>1.017591213278703</v>
       </c>
       <c r="M4">
-        <v>1.042235337858412</v>
+        <v>1.029850057493899</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032196660127425</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032481735449307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028042851374417</v>
+        <v>1.003984491028944</v>
       </c>
       <c r="D5">
-        <v>1.039397525561488</v>
+        <v>1.021456171679871</v>
       </c>
       <c r="E5">
-        <v>1.029563875863889</v>
+        <v>1.008865919245025</v>
       </c>
       <c r="F5">
-        <v>1.034336345775948</v>
+        <v>1.021033744093647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057533325496649</v>
+        <v>1.042424874094976</v>
       </c>
       <c r="J5">
-        <v>1.046318895700141</v>
+        <v>1.022834244803897</v>
       </c>
       <c r="K5">
-        <v>1.0488293400251</v>
+        <v>1.031084070739578</v>
       </c>
       <c r="L5">
-        <v>1.039102124934087</v>
+        <v>1.018636558929301</v>
       </c>
       <c r="M5">
-        <v>1.043822629978293</v>
+        <v>1.03066636212074</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032842717766143</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033054763961279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028318165034663</v>
+        <v>1.004251847506822</v>
       </c>
       <c r="D6">
-        <v>1.039608148415706</v>
+        <v>1.021637540561575</v>
       </c>
       <c r="E6">
-        <v>1.029793957921479</v>
+        <v>1.009088754992639</v>
       </c>
       <c r="F6">
-        <v>1.034640761614686</v>
+        <v>1.021212553339595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05765077344765</v>
+        <v>1.042482118132509</v>
       </c>
       <c r="J6">
-        <v>1.046514667024971</v>
+        <v>1.023019157748671</v>
       </c>
       <c r="K6">
-        <v>1.049001909834686</v>
+        <v>1.031226775056423</v>
       </c>
       <c r="L6">
-        <v>1.039293434262462</v>
+        <v>1.018819579453011</v>
       </c>
       <c r="M6">
-        <v>1.044087722689538</v>
+        <v>1.030806512990181</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.03295363896868</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033164495745853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026416626630241</v>
+        <v>1.002480867429834</v>
       </c>
       <c r="D7">
-        <v>1.038153549570393</v>
+        <v>1.020464730982128</v>
       </c>
       <c r="E7">
-        <v>1.028205156629699</v>
+        <v>1.007623829284843</v>
       </c>
       <c r="F7">
-        <v>1.032538563245507</v>
+        <v>1.020011302173342</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056838587567853</v>
+        <v>1.042126715812394</v>
       </c>
       <c r="J7">
-        <v>1.045162055880012</v>
+        <v>1.021815257020985</v>
       </c>
       <c r="K7">
-        <v>1.047809455733039</v>
+        <v>1.030319362225379</v>
       </c>
       <c r="L7">
-        <v>1.037971791596089</v>
+        <v>1.017628133201861</v>
       </c>
       <c r="M7">
-        <v>1.042256643279687</v>
+        <v>1.029871139295277</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032213345154674</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032527109145834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018249756319332</v>
+        <v>0.9948591281294697</v>
       </c>
       <c r="D8">
-        <v>1.031910093309311</v>
+        <v>1.015413194341403</v>
       </c>
       <c r="E8">
-        <v>1.021390303373005</v>
+        <v>1.001326455956658</v>
       </c>
       <c r="F8">
-        <v>1.023518321593043</v>
+        <v>1.014873609282421</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053325427361302</v>
+        <v>1.040562837518682</v>
       </c>
       <c r="J8">
-        <v>1.039341499012804</v>
+        <v>1.016617514461939</v>
       </c>
       <c r="K8">
-        <v>1.042674497411152</v>
+        <v>1.026388354438125</v>
       </c>
       <c r="L8">
-        <v>1.032288119677505</v>
+        <v>1.0124884894833</v>
       </c>
       <c r="M8">
-        <v>1.034388873852289</v>
+        <v>1.025855807764611</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029035435124946</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029752141334065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00294119447078</v>
+        <v>0.9805655079133394</v>
       </c>
       <c r="D9">
-        <v>1.020227300846443</v>
+        <v>1.00594910773026</v>
       </c>
       <c r="E9">
-        <v>1.008655355480763</v>
+        <v>0.9895560381980368</v>
       </c>
       <c r="F9">
-        <v>1.006640085422911</v>
+        <v>1.005358822756686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046646519938781</v>
+        <v>1.037517434986579</v>
       </c>
       <c r="J9">
-        <v>1.028390517383812</v>
+        <v>1.006823720653189</v>
       </c>
       <c r="K9">
-        <v>1.033000512362328</v>
+        <v>1.018946396607235</v>
       </c>
       <c r="L9">
-        <v>1.0216095492557</v>
+        <v>1.002820865020835</v>
       </c>
       <c r="M9">
-        <v>1.019626342729507</v>
+        <v>1.018365551027484</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.02310727721666</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.024486787044903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9920191659704006</v>
+        <v>0.9706713439397718</v>
       </c>
       <c r="D10">
-        <v>1.011911732456807</v>
+        <v>0.9994475058452874</v>
       </c>
       <c r="E10">
-        <v>0.9996016387442936</v>
+        <v>0.9814733938898189</v>
       </c>
       <c r="F10">
-        <v>0.9946155839621846</v>
+        <v>0.9990807988557018</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041820589749636</v>
+        <v>1.035386183871784</v>
       </c>
       <c r="J10">
-        <v>1.020553045248197</v>
+        <v>1.000098930744392</v>
       </c>
       <c r="K10">
-        <v>1.026069196722196</v>
+        <v>1.013826742915058</v>
       </c>
       <c r="L10">
-        <v>1.013978089453553</v>
+        <v>0.9961854074428131</v>
       </c>
       <c r="M10">
-        <v>1.009082741033115</v>
+        <v>1.013466669620053</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019282698357329</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.020883843104198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9870944081582359</v>
+        <v>0.9683906919074043</v>
       </c>
       <c r="D11">
-        <v>1.008168325547101</v>
+        <v>0.9981639138532683</v>
       </c>
       <c r="E11">
-        <v>0.9955282973338923</v>
+        <v>0.979860821722589</v>
       </c>
       <c r="F11">
-        <v>0.9891970879551425</v>
+        <v>0.9994671791227769</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039630832202303</v>
+        <v>1.035189335443598</v>
       </c>
       <c r="J11">
-        <v>1.017014108003579</v>
+        <v>0.999140254044061</v>
       </c>
       <c r="K11">
-        <v>1.022937825907175</v>
+        <v>1.01312053933553</v>
       </c>
       <c r="L11">
-        <v>1.010535039012097</v>
+        <v>0.9951727965284834</v>
       </c>
       <c r="M11">
-        <v>1.004325648017895</v>
+        <v>1.014399150665097</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.02046614015326</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.020418006651343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9852333027455933</v>
+        <v>0.9683146324835056</v>
       </c>
       <c r="D12">
-        <v>1.006754712357418</v>
+        <v>0.9982769887708375</v>
       </c>
       <c r="E12">
-        <v>0.9939904281639573</v>
+        <v>0.9799880579140121</v>
       </c>
       <c r="F12">
-        <v>0.9871498256658537</v>
+        <v>1.000693845819223</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038801306210757</v>
+        <v>1.035399085288051</v>
       </c>
       <c r="J12">
-        <v>1.015676035856796</v>
+        <v>0.9995232593475276</v>
       </c>
       <c r="K12">
-        <v>1.021753636907762</v>
+        <v>1.013437273571969</v>
       </c>
       <c r="L12">
-        <v>1.009233674904058</v>
+        <v>0.9955089672901575</v>
       </c>
       <c r="M12">
-        <v>1.002527426279947</v>
+        <v>1.015807764900142</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.021912542129586</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.020641956350384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9856339993190714</v>
+        <v>0.9699461247167884</v>
       </c>
       <c r="D13">
-        <v>1.007059014016831</v>
+        <v>0.9994912439435127</v>
       </c>
       <c r="E13">
-        <v>0.9943214629159651</v>
+        <v>0.9814762681304802</v>
       </c>
       <c r="F13">
-        <v>0.987590583737976</v>
+        <v>1.002673871174401</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03897999255692</v>
+        <v>1.035951011472068</v>
       </c>
       <c r="J13">
-        <v>1.015964152632008</v>
+        <v>1.000981720068825</v>
       </c>
       <c r="K13">
-        <v>1.022008628654482</v>
+        <v>1.014584130713712</v>
       </c>
       <c r="L13">
-        <v>1.009513866766458</v>
+        <v>0.9969219116156451</v>
       </c>
       <c r="M13">
-        <v>1.002914606131965</v>
+        <v>1.01770616030516</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.023694274839177</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021450311644363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9869412332234482</v>
+        <v>0.9718339857185651</v>
       </c>
       <c r="D14">
-        <v>1.008051958530348</v>
+        <v>1.000822975315062</v>
       </c>
       <c r="E14">
-        <v>0.9954016949873368</v>
+        <v>0.983110635275808</v>
       </c>
       <c r="F14">
-        <v>0.9890285834411203</v>
+        <v>1.004364636551983</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039562599721862</v>
+        <v>1.03648493459495</v>
       </c>
       <c r="J14">
-        <v>1.016903993721404</v>
+        <v>1.002464737322597</v>
       </c>
       <c r="K14">
-        <v>1.022840379446433</v>
+        <v>1.015746336708214</v>
       </c>
       <c r="L14">
-        <v>1.010427936218333</v>
+        <v>0.9983756446267784</v>
       </c>
       <c r="M14">
-        <v>1.004177658514307</v>
+        <v>1.019221570444955</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.025067538415998</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022273508782623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9877423666482205</v>
+        <v>0.9726886751609107</v>
       </c>
       <c r="D15">
-        <v>1.0086606232334</v>
+        <v>1.001405713662079</v>
       </c>
       <c r="E15">
-        <v>0.9960639097751338</v>
+        <v>0.9838269181886203</v>
       </c>
       <c r="F15">
-        <v>0.9899099104641731</v>
+        <v>1.004995282301801</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03991938739988</v>
+        <v>1.036698365604619</v>
       </c>
       <c r="J15">
-        <v>1.017479884738168</v>
+        <v>1.003085220236472</v>
       </c>
       <c r="K15">
-        <v>1.02335000981238</v>
+        <v>1.016229388407846</v>
       </c>
       <c r="L15">
-        <v>1.010988095904601</v>
+        <v>0.9989867543204058</v>
       </c>
       <c r="M15">
-        <v>1.004951651518208</v>
+        <v>1.019752198292848</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.025524865674108</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.02262102667735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9923416837761725</v>
+        <v>0.9765191633442732</v>
       </c>
       <c r="D16">
-        <v>1.012157022055198</v>
+        <v>1.00388966834033</v>
       </c>
       <c r="E16">
-        <v>0.9998685949643561</v>
+        <v>0.9869135575769504</v>
       </c>
       <c r="F16">
-        <v>0.9949704999154858</v>
+        <v>1.007286973668513</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041963715521879</v>
+        <v>1.037492791483469</v>
       </c>
       <c r="J16">
-        <v>1.020784709129573</v>
+        <v>1.005616514927244</v>
       </c>
       <c r="K16">
-        <v>1.026274149442225</v>
+        <v>1.018152574581185</v>
       </c>
       <c r="L16">
-        <v>1.014203537652357</v>
+        <v>1.001485795280576</v>
       </c>
       <c r="M16">
-        <v>1.009394214495875</v>
+        <v>1.021489599376274</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.026858974969451</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.023984041316096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9951727308586862</v>
+        <v>0.9784863922982211</v>
       </c>
       <c r="D17">
-        <v>1.014310867396599</v>
+        <v>1.005111213198449</v>
       </c>
       <c r="E17">
-        <v>1.002212955779038</v>
+        <v>0.9884429837725592</v>
       </c>
       <c r="F17">
-        <v>0.9980863092777683</v>
+        <v>1.008171015413253</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043218521214669</v>
+        <v>1.037825496744739</v>
       </c>
       <c r="J17">
-        <v>1.022817686204765</v>
+        <v>1.006797170434295</v>
       </c>
       <c r="K17">
-        <v>1.0280725432706</v>
+        <v>1.019030213935942</v>
       </c>
       <c r="L17">
-        <v>1.016182294803037</v>
+        <v>1.002656729867758</v>
       </c>
       <c r="M17">
-        <v>1.012127975830762</v>
+        <v>1.022037278042863</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.027161447343208</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024607208353439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9968053556470127</v>
+        <v>0.9789552531357024</v>
       </c>
       <c r="D18">
-        <v>1.015553524067383</v>
+        <v>1.005296379330161</v>
       </c>
       <c r="E18">
-        <v>1.003565753300945</v>
+        <v>0.9886971424326993</v>
       </c>
       <c r="F18">
-        <v>0.9998834749835354</v>
+        <v>1.007737112079192</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043940851679197</v>
+        <v>1.037763059500731</v>
       </c>
       <c r="J18">
-        <v>1.023989598450185</v>
+        <v>1.006837578120625</v>
       </c>
       <c r="K18">
-        <v>1.029109077595173</v>
+        <v>1.019024312369351</v>
       </c>
       <c r="L18">
-        <v>1.017323219753769</v>
+        <v>1.002713872444857</v>
       </c>
       <c r="M18">
-        <v>1.013704220104195</v>
+        <v>1.021423616103028</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.026435643529753</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.024591215586801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9973589410030455</v>
+        <v>0.9780710176501366</v>
       </c>
       <c r="D19">
-        <v>1.015974972209667</v>
+        <v>1.004568909878564</v>
       </c>
       <c r="E19">
-        <v>1.004024594206195</v>
+        <v>0.9878079870820328</v>
       </c>
       <c r="F19">
-        <v>1.000492909158668</v>
+        <v>1.00601186449961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044185555199734</v>
+        <v>1.037362943991078</v>
       </c>
       <c r="J19">
-        <v>1.024386883866224</v>
+        <v>1.005849221176564</v>
       </c>
       <c r="K19">
-        <v>1.029460442624116</v>
+        <v>1.018245118548158</v>
       </c>
       <c r="L19">
-        <v>1.017710045080791</v>
+        <v>1.001774848706418</v>
       </c>
       <c r="M19">
-        <v>1.014238641991426</v>
+        <v>1.019663634976964</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.024713452278511</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.024046785881546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9948709350994422</v>
+        <v>0.9733296680826468</v>
       </c>
       <c r="D20">
-        <v>1.014081203247244</v>
+        <v>1.001218136091247</v>
       </c>
       <c r="E20">
-        <v>1.001962953922365</v>
+        <v>0.9836547816956783</v>
       </c>
       <c r="F20">
-        <v>0.9977541242374247</v>
+        <v>1.000758323002228</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04308489063278</v>
+        <v>1.035986632399936</v>
       </c>
       <c r="J20">
-        <v>1.022601015481188</v>
+        <v>1.001928862311808</v>
       </c>
       <c r="K20">
-        <v>1.027880889620896</v>
+        <v>1.015239599809759</v>
       </c>
       <c r="L20">
-        <v>1.015971374747071</v>
+        <v>0.9979912628261326</v>
       </c>
       <c r="M20">
-        <v>1.01183657995505</v>
+        <v>1.014787851307503</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.020317501491939</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.021925717841853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.98655718535107</v>
+        <v>0.9653974079255506</v>
       </c>
       <c r="D21">
-        <v>1.007760214688078</v>
+        <v>0.9959751763577414</v>
       </c>
       <c r="E21">
-        <v>0.9950842954908015</v>
+        <v>0.9771435383074834</v>
       </c>
       <c r="F21">
-        <v>0.9886061071352862</v>
+        <v>0.9953957659111143</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039391491901233</v>
+        <v>1.034198091519823</v>
       </c>
       <c r="J21">
-        <v>1.016627899006559</v>
+        <v>0.9964166340719104</v>
       </c>
       <c r="K21">
-        <v>1.022596043934044</v>
+        <v>1.011033203570248</v>
       </c>
       <c r="L21">
-        <v>1.010159399722287</v>
+        <v>0.9925712692064155</v>
       </c>
       <c r="M21">
-        <v>1.003806604004836</v>
+        <v>1.010464895113253</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.016854252838094</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.018954854217057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9811443984804918</v>
+        <v>0.9603468237141692</v>
       </c>
       <c r="D22">
-        <v>1.003651057868956</v>
+        <v>0.9926459085977274</v>
       </c>
       <c r="E22">
-        <v>0.9906145631422628</v>
+        <v>0.9730164308707603</v>
       </c>
       <c r="F22">
-        <v>0.982652631186138</v>
+        <v>0.9921232492459582</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036975204289687</v>
+        <v>1.033055646491277</v>
       </c>
       <c r="J22">
-        <v>1.012735085702519</v>
+        <v>0.9929317777125944</v>
       </c>
       <c r="K22">
-        <v>1.019150531918334</v>
+        <v>1.008364472900053</v>
       </c>
       <c r="L22">
-        <v>1.006374268728287</v>
+        <v>0.9891420834608589</v>
       </c>
       <c r="M22">
-        <v>0.9985757578668157</v>
+        <v>1.007852377881743</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.014786546499676</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.017054077771675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9840323126108084</v>
+        <v>0.9630145034975184</v>
       </c>
       <c r="D23">
-        <v>1.005842807421136</v>
+        <v>0.9943945125202009</v>
       </c>
       <c r="E23">
-        <v>0.9929984596826897</v>
+        <v>0.9751909691803703</v>
       </c>
       <c r="F23">
-        <v>0.9858288177642978</v>
+        <v>0.993855278181712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038265449814062</v>
+        <v>1.033652136741091</v>
       </c>
       <c r="J23">
-        <v>1.014812382594163</v>
+        <v>0.9947658377412203</v>
       </c>
       <c r="K23">
-        <v>1.020989248520054</v>
+        <v>1.009762431646432</v>
       </c>
       <c r="L23">
-        <v>1.008393845547658</v>
+        <v>0.9909458210591557</v>
       </c>
       <c r="M23">
-        <v>1.001366876379325</v>
+        <v>1.009233794503678</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.015879885133309</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.018032678407382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9950073611473507</v>
+        <v>0.9732149589873784</v>
       </c>
       <c r="D24">
-        <v>1.014185020631216</v>
+        <v>1.001110734837221</v>
       </c>
       <c r="E24">
-        <v>1.002075964069044</v>
+        <v>0.9835326777605262</v>
       </c>
       <c r="F24">
-        <v>0.997904286679809</v>
+        <v>1.000511145717149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043145302052196</v>
+        <v>1.035922090726228</v>
       </c>
       <c r="J24">
-        <v>1.022698962447372</v>
+        <v>1.001784543391812</v>
       </c>
       <c r="K24">
-        <v>1.027967527981418</v>
+        <v>1.015118372764332</v>
       </c>
       <c r="L24">
-        <v>1.016066721268184</v>
+        <v>0.9978552840139725</v>
       </c>
       <c r="M24">
-        <v>1.01196830561898</v>
+        <v>1.014529291006029</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020071052128052</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.021812073706662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007017183700609</v>
+        <v>0.984407137271945</v>
       </c>
       <c r="D25">
-        <v>1.023334994904826</v>
+        <v>1.008504210547179</v>
       </c>
       <c r="E25">
-        <v>1.012041030854335</v>
+        <v>0.9927202152847431</v>
       </c>
       <c r="F25">
-        <v>1.011130808722993</v>
+        <v>1.007893036861526</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048435404767627</v>
+        <v>1.0383603363526</v>
       </c>
       <c r="J25">
-        <v>1.031310677573468</v>
+        <v>1.009470904653558</v>
       </c>
       <c r="K25">
-        <v>1.03558155154904</v>
+        <v>1.020971928599409</v>
       </c>
       <c r="L25">
-        <v>1.024455257343756</v>
+        <v>1.005432601593232</v>
       </c>
       <c r="M25">
-        <v>1.023558756045823</v>
+        <v>1.020370046917223</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024693738987096</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.025948054676665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9928115402522319</v>
+        <v>0.9932712904548882</v>
       </c>
       <c r="D2">
-        <v>1.014045172346797</v>
+        <v>1.01448841072</v>
       </c>
       <c r="E2">
-        <v>0.9996324881079641</v>
+        <v>1.000159955054311</v>
       </c>
       <c r="F2">
-        <v>1.013508206298133</v>
+        <v>1.013707371878166</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040125079787985</v>
+        <v>1.04043091826624</v>
       </c>
       <c r="J2">
-        <v>1.01520940351558</v>
+        <v>1.015655135695077</v>
       </c>
       <c r="K2">
-        <v>1.025312242917756</v>
+        <v>1.025749522719604</v>
       </c>
       <c r="L2">
-        <v>1.011096945329826</v>
+        <v>1.011617061898191</v>
       </c>
       <c r="M2">
-        <v>1.024782504222656</v>
+        <v>1.024978987988835</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028185973013313</v>
+        <v>1.028341479440297</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.028968028900948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029286117230441</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018681761736122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9987162596412559</v>
+        <v>0.9987821889678494</v>
       </c>
       <c r="D3">
-        <v>1.017958169220335</v>
+        <v>1.017977323805977</v>
       </c>
       <c r="E3">
-        <v>1.004507100850281</v>
+        <v>1.004674060232992</v>
       </c>
       <c r="F3">
-        <v>1.017474844169084</v>
+        <v>1.017503366642628</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041350310615623</v>
+        <v>1.041463272988569</v>
       </c>
       <c r="J3">
-        <v>1.019241981995862</v>
+        <v>1.019306107884697</v>
       </c>
       <c r="K3">
-        <v>1.028366314662912</v>
+        <v>1.028385234805784</v>
       </c>
       <c r="L3">
-        <v>1.01508263548086</v>
+        <v>1.015247482887872</v>
       </c>
       <c r="M3">
-        <v>1.027888908907355</v>
+        <v>1.027917081871176</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030644522632164</v>
+        <v>1.030666819954162</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031124886486475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031146859834284</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019311910931568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00243638263285</v>
+        <v>1.002259715786154</v>
       </c>
       <c r="D4">
-        <v>1.020425918593171</v>
+        <v>1.020181801594042</v>
       </c>
       <c r="E4">
-        <v>1.007583460358732</v>
+        <v>1.007528189294297</v>
       </c>
       <c r="F4">
-        <v>1.019987018861867</v>
+        <v>1.019910654755807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04210957603626</v>
+        <v>1.042102793269874</v>
       </c>
       <c r="J4">
-        <v>1.021777970158712</v>
+        <v>1.021605793904233</v>
       </c>
       <c r="K4">
-        <v>1.030283916086807</v>
+        <v>1.030042602319042</v>
       </c>
       <c r="L4">
-        <v>1.017591213278703</v>
+        <v>1.017536596947998</v>
       </c>
       <c r="M4">
-        <v>1.029850057493899</v>
+        <v>1.029774571041948</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032196660127425</v>
+        <v>1.032136916960603</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032481735449307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032319770863733</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.01970514396225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003984491028944</v>
+        <v>1.003707879029117</v>
       </c>
       <c r="D5">
-        <v>1.021456171679871</v>
+        <v>1.021103208824534</v>
       </c>
       <c r="E5">
-        <v>1.008865919245025</v>
+        <v>1.008718988121944</v>
       </c>
       <c r="F5">
-        <v>1.021033744093647</v>
+        <v>1.020914221840124</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042424874094976</v>
+        <v>1.042368474828112</v>
       </c>
       <c r="J5">
-        <v>1.022834244803897</v>
+        <v>1.022564444491753</v>
       </c>
       <c r="K5">
-        <v>1.031084070739578</v>
+        <v>1.030735050526235</v>
       </c>
       <c r="L5">
-        <v>1.018636558929301</v>
+        <v>1.01849131959373</v>
       </c>
       <c r="M5">
-        <v>1.03066636212074</v>
+        <v>1.030548175930867</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032842717766143</v>
+        <v>1.032749180307058</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033054763961279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032817349084703</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.01986951478316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004251847506822</v>
+        <v>1.003957760425153</v>
       </c>
       <c r="D6">
-        <v>1.021637540561575</v>
+        <v>1.021265606206488</v>
       </c>
       <c r="E6">
-        <v>1.009088754992639</v>
+        <v>1.008925693582303</v>
       </c>
       <c r="F6">
-        <v>1.021212553339595</v>
+        <v>1.021085487890563</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042482118132509</v>
+        <v>1.042416932255387</v>
       </c>
       <c r="J6">
-        <v>1.023019157748671</v>
+        <v>1.022732273725155</v>
       </c>
       <c r="K6">
-        <v>1.031226775056423</v>
+        <v>1.030858975732588</v>
       </c>
       <c r="L6">
-        <v>1.018819579453011</v>
+        <v>1.018658386497489</v>
       </c>
       <c r="M6">
-        <v>1.030806512990181</v>
+        <v>1.030680861238639</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03295363896868</v>
+        <v>1.032854192969356</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033164495745853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032914671905594</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019899876620919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002480867429834</v>
+        <v>1.002300508011163</v>
       </c>
       <c r="D7">
-        <v>1.020464730982128</v>
+        <v>1.020216835790841</v>
       </c>
       <c r="E7">
-        <v>1.007623829284843</v>
+        <v>1.007564885634613</v>
       </c>
       <c r="F7">
-        <v>1.020011302173342</v>
+        <v>1.019933342338162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042126715812394</v>
+        <v>1.042117824840711</v>
       </c>
       <c r="J7">
-        <v>1.021815257020985</v>
+        <v>1.021639479849561</v>
       </c>
       <c r="K7">
-        <v>1.030319362225379</v>
+        <v>1.030074312445108</v>
       </c>
       <c r="L7">
-        <v>1.017628133201861</v>
+        <v>1.017569887489948</v>
       </c>
       <c r="M7">
-        <v>1.029871139295277</v>
+        <v>1.029794075103462</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032213345154674</v>
+        <v>1.032152353299277</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032527109145834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032364504209589</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019715365816207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948591281294697</v>
+        <v>0.9951799050842246</v>
       </c>
       <c r="D8">
-        <v>1.015413194341403</v>
+        <v>1.015707559862122</v>
       </c>
       <c r="E8">
-        <v>1.001326455956658</v>
+        <v>1.001726347754041</v>
       </c>
       <c r="F8">
-        <v>1.014873609282421</v>
+        <v>1.015012507784027</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040562837518682</v>
+        <v>1.040800435394638</v>
       </c>
       <c r="J8">
-        <v>1.016617514461939</v>
+        <v>1.016928858003483</v>
       </c>
       <c r="K8">
-        <v>1.026388354438125</v>
+        <v>1.026678884182354</v>
       </c>
       <c r="L8">
-        <v>1.0124884894833</v>
+        <v>1.012882985232881</v>
       </c>
       <c r="M8">
-        <v>1.025855807764611</v>
+        <v>1.025992893568541</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029035435124946</v>
+        <v>1.029143931101293</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029752141334065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.02996872298792</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018908053310532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9805655079133394</v>
+        <v>0.9818769155373182</v>
       </c>
       <c r="D9">
-        <v>1.00594910773026</v>
+        <v>1.007295727041739</v>
       </c>
       <c r="E9">
-        <v>0.9895560381980368</v>
+        <v>0.9908612686963831</v>
       </c>
       <c r="F9">
-        <v>1.005358822756686</v>
+        <v>1.005928457027626</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.037517434986579</v>
+        <v>1.038233686320889</v>
       </c>
       <c r="J9">
-        <v>1.006823720653189</v>
+        <v>1.008086288483511</v>
       </c>
       <c r="K9">
-        <v>1.018946396607235</v>
+        <v>1.020271534857042</v>
       </c>
       <c r="L9">
-        <v>1.002820865020835</v>
+        <v>1.004104376255945</v>
       </c>
       <c r="M9">
-        <v>1.018365551027484</v>
+        <v>1.018926075895411</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.02310727721666</v>
+        <v>1.023550905975697</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.024486787044903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.025434698082482</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017356029330008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9706713439397718</v>
+        <v>0.9726955088348362</v>
       </c>
       <c r="D10">
-        <v>0.9994475058452874</v>
+        <v>1.001536849418423</v>
       </c>
       <c r="E10">
-        <v>0.9814733938898189</v>
+        <v>0.9834248507341248</v>
       </c>
       <c r="F10">
-        <v>0.9990807988557018</v>
+        <v>0.9999609476567404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.035386183871784</v>
+        <v>1.036437219300416</v>
       </c>
       <c r="J10">
-        <v>1.000098930744392</v>
+        <v>1.002035951942801</v>
       </c>
       <c r="K10">
-        <v>1.013826742915058</v>
+        <v>1.015878410905566</v>
       </c>
       <c r="L10">
-        <v>0.9961854074428131</v>
+        <v>0.9980999654640099</v>
       </c>
       <c r="M10">
-        <v>1.013466669620053</v>
+        <v>1.014330907241497</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019282698357329</v>
+        <v>1.019966660418184</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.020883843104198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.022347186604339</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016289122347886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9683906919074043</v>
+        <v>0.9704788255502124</v>
       </c>
       <c r="D11">
-        <v>0.9981639138532683</v>
+        <v>1.000328299225338</v>
       </c>
       <c r="E11">
-        <v>0.979860821722589</v>
+        <v>0.9818495744225351</v>
       </c>
       <c r="F11">
-        <v>0.9994671791227769</v>
+        <v>1.000367965222106</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.035189335443598</v>
+        <v>1.036254207817372</v>
       </c>
       <c r="J11">
-        <v>0.999140254044061</v>
+        <v>1.001133463214817</v>
       </c>
       <c r="K11">
-        <v>1.01312053933553</v>
+        <v>1.015244026958446</v>
       </c>
       <c r="L11">
-        <v>0.9951727965284834</v>
+        <v>0.9971220952569756</v>
       </c>
       <c r="M11">
-        <v>1.014399150665097</v>
+        <v>1.015282945592668</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.02046614015326</v>
+        <v>1.021165212321869</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.020418006651343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02193532854961</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016232971491868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9683146324835056</v>
+        <v>0.9703248246548413</v>
       </c>
       <c r="D12">
-        <v>0.9982769887708375</v>
+        <v>1.000368164679903</v>
       </c>
       <c r="E12">
-        <v>0.9799880579140121</v>
+        <v>0.9818897702500734</v>
       </c>
       <c r="F12">
-        <v>1.000693845819223</v>
+        <v>1.001555985126706</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.035399085288051</v>
+        <v>1.036415166755352</v>
       </c>
       <c r="J12">
-        <v>0.9995232593475276</v>
+        <v>1.001440442195822</v>
       </c>
       <c r="K12">
-        <v>1.013437273571969</v>
+        <v>1.015488314633063</v>
       </c>
       <c r="L12">
-        <v>0.9955089672901575</v>
+        <v>0.9973723575826615</v>
       </c>
       <c r="M12">
-        <v>1.015807764900142</v>
+        <v>1.016653435508467</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.021912542129586</v>
+        <v>1.022581223810571</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.020641956350384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02210804985185</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016367624453486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9699461247167884</v>
+        <v>0.9717633438254082</v>
       </c>
       <c r="D13">
-        <v>0.9994912439435127</v>
+        <v>1.001389472936921</v>
       </c>
       <c r="E13">
-        <v>0.9814762681304802</v>
+        <v>0.9831888779656129</v>
       </c>
       <c r="F13">
-        <v>1.002673871174401</v>
+        <v>1.003449676381641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.035951011472068</v>
+        <v>1.036866194666538</v>
       </c>
       <c r="J13">
-        <v>1.000981720068825</v>
+        <v>1.002715548482694</v>
       </c>
       <c r="K13">
-        <v>1.014584130713712</v>
+        <v>1.016446156548825</v>
       </c>
       <c r="L13">
-        <v>0.9969219116156451</v>
+        <v>0.9986002550117787</v>
       </c>
       <c r="M13">
-        <v>1.01770616030516</v>
+        <v>1.018467270243245</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.023694274839177</v>
+        <v>1.024295938311755</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021450311644363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.022782502072603</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016667272436146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9718339857185651</v>
+        <v>0.973468295825776</v>
       </c>
       <c r="D14">
-        <v>1.000822975315062</v>
+        <v>1.002535653718079</v>
       </c>
       <c r="E14">
-        <v>0.983110635275808</v>
+        <v>0.9846485452452401</v>
       </c>
       <c r="F14">
-        <v>1.004364636551983</v>
+        <v>1.005060563928791</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.03648493459495</v>
+        <v>1.037307633915672</v>
       </c>
       <c r="J14">
-        <v>1.002464737322597</v>
+        <v>1.004025349703434</v>
       </c>
       <c r="K14">
-        <v>1.015746336708214</v>
+        <v>1.01742681554189</v>
       </c>
       <c r="L14">
-        <v>0.9983756446267784</v>
+        <v>0.9998832505572376</v>
       </c>
       <c r="M14">
-        <v>1.019221570444955</v>
+        <v>1.019904516795492</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025067538415998</v>
+        <v>1.025607339026271</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022273508782623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.023477455771086</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016948260883269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9726886751609107</v>
+        <v>0.974251817718774</v>
       </c>
       <c r="D15">
-        <v>1.001405713662079</v>
+        <v>1.003045277406079</v>
       </c>
       <c r="E15">
-        <v>0.9838269181886203</v>
+        <v>0.9852984982327606</v>
       </c>
       <c r="F15">
-        <v>1.004995282301801</v>
+        <v>1.005660561572049</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.036698365604619</v>
+        <v>1.037486218267496</v>
       </c>
       <c r="J15">
-        <v>1.003085220236472</v>
+        <v>1.004578573387693</v>
       </c>
       <c r="K15">
-        <v>1.016229388407846</v>
+        <v>1.01783838223066</v>
       </c>
       <c r="L15">
-        <v>0.9989867543204058</v>
+        <v>1.000429589773653</v>
       </c>
       <c r="M15">
-        <v>1.019752198292848</v>
+        <v>1.020405172944687</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.025524865674108</v>
+        <v>1.026040963016124</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02262102667735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.023774991391433</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01705806653609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9765191633442732</v>
+        <v>0.977825174188623</v>
       </c>
       <c r="D16">
-        <v>1.00388966834033</v>
+        <v>1.005259043980459</v>
       </c>
       <c r="E16">
-        <v>0.9869135575769504</v>
+        <v>0.9881560343983093</v>
       </c>
       <c r="F16">
-        <v>1.007286973668513</v>
+        <v>1.007843064462368</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.037492791483469</v>
+        <v>1.038162359990784</v>
       </c>
       <c r="J16">
-        <v>1.005616514927244</v>
+        <v>1.006867374189359</v>
       </c>
       <c r="K16">
-        <v>1.018152574581185</v>
+        <v>1.019497588921069</v>
       </c>
       <c r="L16">
-        <v>1.001485795280576</v>
+        <v>1.002705162050805</v>
       </c>
       <c r="M16">
-        <v>1.021489599376274</v>
+        <v>1.02203587328551</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.026858974969451</v>
+        <v>1.027290751085983</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.023984041316096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.024951638425044</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01745050893819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784863922982211</v>
+        <v>0.9796890466346315</v>
       </c>
       <c r="D17">
-        <v>1.005111213198449</v>
+        <v>1.00636861482213</v>
       </c>
       <c r="E17">
-        <v>0.9884429837725592</v>
+        <v>0.9895992156624734</v>
       </c>
       <c r="F17">
-        <v>1.008171015413253</v>
+        <v>1.008683946595168</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.037825496744739</v>
+        <v>1.038451732545355</v>
       </c>
       <c r="J17">
-        <v>1.006797170434295</v>
+        <v>1.007950758796798</v>
       </c>
       <c r="K17">
-        <v>1.019030213935942</v>
+        <v>1.020265893051441</v>
       </c>
       <c r="L17">
-        <v>1.002656729867758</v>
+        <v>1.003792099481841</v>
       </c>
       <c r="M17">
-        <v>1.022037278042863</v>
+        <v>1.022541408920411</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.027161447343208</v>
+        <v>1.027559953939691</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024607208353439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.025497738921741</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017606313328542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9789552531357024</v>
+        <v>0.980183218900556</v>
       </c>
       <c r="D18">
-        <v>1.005296379330161</v>
+        <v>1.006574588961039</v>
       </c>
       <c r="E18">
-        <v>0.9886971424326993</v>
+        <v>0.989888251979792</v>
       </c>
       <c r="F18">
-        <v>1.007737112079192</v>
+        <v>1.008262622876622</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.037763059500731</v>
+        <v>1.038410320723222</v>
       </c>
       <c r="J18">
-        <v>1.006837578120625</v>
+        <v>1.008016365827096</v>
       </c>
       <c r="K18">
-        <v>1.019024312369351</v>
+        <v>1.020280793314424</v>
       </c>
       <c r="L18">
-        <v>1.002713872444857</v>
+        <v>1.003883840358446</v>
       </c>
       <c r="M18">
-        <v>1.021423616103028</v>
+        <v>1.021940240734938</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.026435643529753</v>
+        <v>1.0268441131947</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.024591215586801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.025495324329371</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017554925033332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9780710176501366</v>
+        <v>0.9794354540809916</v>
       </c>
       <c r="D19">
-        <v>1.004568909878564</v>
+        <v>1.005983303411487</v>
       </c>
       <c r="E19">
-        <v>0.9878079870820328</v>
+        <v>0.9891374514421574</v>
       </c>
       <c r="F19">
-        <v>1.00601186449961</v>
+        <v>1.006598881626184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.037362943991078</v>
+        <v>1.038085803046708</v>
       </c>
       <c r="J19">
-        <v>1.005849221176564</v>
+        <v>1.00715920711182</v>
       </c>
       <c r="K19">
-        <v>1.018245118548158</v>
+        <v>1.019635556728091</v>
       </c>
       <c r="L19">
-        <v>1.001774848706418</v>
+        <v>1.003080792272603</v>
       </c>
       <c r="M19">
-        <v>1.019663634976964</v>
+        <v>1.020240736119327</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.024713452278511</v>
+        <v>1.025169891218001</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.024046785881546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.025046240888151</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017328081438041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9733296680826468</v>
+        <v>0.9751552028844224</v>
       </c>
       <c r="D20">
-        <v>1.001218136091247</v>
+        <v>1.003102535780216</v>
       </c>
       <c r="E20">
-        <v>0.9836547816956783</v>
+        <v>0.9854252572225723</v>
       </c>
       <c r="F20">
-        <v>1.000758323002228</v>
+        <v>1.001551862509811</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.035986632399936</v>
+        <v>1.036943876759702</v>
       </c>
       <c r="J20">
-        <v>1.001928862311808</v>
+        <v>1.003678624262589</v>
       </c>
       <c r="K20">
-        <v>1.015239599809759</v>
+        <v>1.017091049337567</v>
       </c>
       <c r="L20">
-        <v>0.9979912628261326</v>
+        <v>0.9997293204591595</v>
       </c>
       <c r="M20">
-        <v>1.014787851307503</v>
+        <v>1.015567479063178</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.020317501491939</v>
+        <v>1.0209345102608</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.021925717841853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.023251553385377</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016592898391026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9653974079255506</v>
+        <v>0.9678304875911108</v>
       </c>
       <c r="D21">
-        <v>0.9959751763577414</v>
+        <v>0.9984838548639836</v>
       </c>
       <c r="E21">
-        <v>0.9771435383074834</v>
+        <v>0.9794670026475146</v>
       </c>
       <c r="F21">
-        <v>0.9953957659111143</v>
+        <v>0.9964559094128501</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.034198091519823</v>
+        <v>1.035439992543698</v>
       </c>
       <c r="J21">
-        <v>0.9964166340719104</v>
+        <v>0.9987376155344551</v>
       </c>
       <c r="K21">
-        <v>1.011033203570248</v>
+        <v>1.013494008122935</v>
       </c>
       <c r="L21">
-        <v>0.9925712692064155</v>
+        <v>0.9948481078276298</v>
       </c>
       <c r="M21">
-        <v>1.010464895113253</v>
+        <v>1.0115047382019</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.016854252838094</v>
+        <v>1.017677246618463</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.018954854217057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.020711910057951</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.015694440531112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9603468237141692</v>
+        <v>0.963174253286941</v>
       </c>
       <c r="D22">
-        <v>0.9926459085977274</v>
+        <v>0.9955551789534081</v>
       </c>
       <c r="E22">
-        <v>0.9730164308707603</v>
+        <v>0.9756969962972247</v>
       </c>
       <c r="F22">
-        <v>0.9921232492459582</v>
+        <v>0.9933564029814045</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.033055646491277</v>
+        <v>1.034479416115009</v>
       </c>
       <c r="J22">
-        <v>0.9929317777125944</v>
+        <v>0.9956203920513698</v>
       </c>
       <c r="K22">
-        <v>1.008364472900053</v>
+        <v>1.011215205875443</v>
       </c>
       <c r="L22">
-        <v>0.9891420834608589</v>
+        <v>0.9917657792771144</v>
       </c>
       <c r="M22">
-        <v>1.007852377881743</v>
+        <v>1.009060629776697</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.014786546499676</v>
+        <v>1.015742831948049</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017054077771675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.019085579966778</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.015124414713935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9630145034975184</v>
+        <v>0.9656338480956091</v>
       </c>
       <c r="D23">
-        <v>0.9943945125202009</v>
+        <v>0.9970926373243506</v>
       </c>
       <c r="E23">
-        <v>0.9751909691803703</v>
+        <v>0.9776836553738186</v>
       </c>
       <c r="F23">
-        <v>0.993855278181712</v>
+        <v>0.9949970971120027</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.033652136741091</v>
+        <v>1.034980621226653</v>
       </c>
       <c r="J23">
-        <v>0.9947658377412203</v>
+        <v>0.9972608153988983</v>
       </c>
       <c r="K23">
-        <v>1.009762431646432</v>
+        <v>1.012407757882796</v>
       </c>
       <c r="L23">
-        <v>0.9909458210591557</v>
+        <v>0.99338714935758</v>
       </c>
       <c r="M23">
-        <v>1.009233794503678</v>
+        <v>1.010353191899086</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015879885133309</v>
+        <v>1.016765844197518</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.018032678407382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.019917993593016</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.015420266857899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9732149589873784</v>
+        <v>0.9750600276200401</v>
       </c>
       <c r="D24">
-        <v>1.001110734837221</v>
+        <v>1.003014204165481</v>
       </c>
       <c r="E24">
-        <v>0.9835326777605262</v>
+        <v>0.9853232112906178</v>
       </c>
       <c r="F24">
-        <v>1.000511145717149</v>
+        <v>1.001313821307322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.035922090726228</v>
+        <v>1.036890432594992</v>
       </c>
       <c r="J24">
-        <v>1.001784543391812</v>
+        <v>1.003553113286883</v>
       </c>
       <c r="K24">
-        <v>1.015118372764332</v>
+        <v>1.016988592964159</v>
       </c>
       <c r="L24">
-        <v>0.9978552840139725</v>
+        <v>0.9996130651459829</v>
       </c>
       <c r="M24">
-        <v>1.014529291006029</v>
+        <v>1.01531790398804</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020071052128052</v>
+        <v>1.020695204507776</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.021812073706662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.023148527273929</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016554681226649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.984407137271945</v>
+        <v>0.9854440314574237</v>
       </c>
       <c r="D25">
-        <v>1.008504210547179</v>
+        <v>1.009562184224742</v>
       </c>
       <c r="E25">
-        <v>0.9927202152847431</v>
+        <v>0.9937743739687886</v>
       </c>
       <c r="F25">
-        <v>1.007893036861526</v>
+        <v>1.008343064015598</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.0383603363526</v>
+        <v>1.038944606967803</v>
       </c>
       <c r="J25">
-        <v>1.009470904653558</v>
+        <v>1.010471391909804</v>
       </c>
       <c r="K25">
-        <v>1.020971928599409</v>
+        <v>1.022013851217143</v>
       </c>
       <c r="L25">
-        <v>1.005432601593232</v>
+        <v>1.006470109716885</v>
       </c>
       <c r="M25">
-        <v>1.020370046917223</v>
+        <v>1.020813230671836</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024693738987096</v>
+        <v>1.025044497042837</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.025948054676665</v>
+        <v>1.026698487165293</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017785352276521</v>
       </c>
     </row>
   </sheetData>
